--- a/examples/outputs/debug_check_lmsg6/20260107_064321/results.xlsx
+++ b/examples/outputs/debug_check_lmsg6/20260107_064321/results.xlsx
@@ -537,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G730"/>
+  <dimension ref="A1:G649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -13408,7 +13408,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -13420,7 +13420,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>4.32</v>
+        <v>5.22</v>
       </c>
       <c r="F444" t="n">
         <v>8</v>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -13449,13 +13449,13 @@
         <v>2</v>
       </c>
       <c r="E445" t="n">
-        <v>5.105345113209789</v>
+        <v>5.619999999999998</v>
       </c>
       <c r="F445" t="n">
-        <v>8.131758428875738</v>
+        <v>8</v>
       </c>
       <c r="G445" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -13478,13 +13478,13 @@
         <v>3</v>
       </c>
       <c r="E446" t="n">
-        <v>5.804689731760138</v>
+        <v>6.019999999999997</v>
       </c>
       <c r="F446" t="n">
-        <v>8.512605294330825</v>
+        <v>8</v>
       </c>
       <c r="G446" t="n">
-        <v>0.6648933402869011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -13507,13 +13507,13 @@
         <v>4</v>
       </c>
       <c r="E447" t="n">
-        <v>6.504034350310488</v>
+        <v>6.419999999999995</v>
       </c>
       <c r="F447" t="n">
-        <v>8.893452159785912</v>
+        <v>8</v>
       </c>
       <c r="G447" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -13536,13 +13536,13 @@
         <v>5</v>
       </c>
       <c r="E448" t="n">
-        <v>7.203378968860838</v>
+        <v>6.819999999999994</v>
       </c>
       <c r="F448" t="n">
-        <v>9.274299025241</v>
+        <v>8</v>
       </c>
       <c r="G448" t="n">
-        <v>0.6648933402869011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -13553,7 +13553,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -13565,13 +13565,13 @@
         <v>6</v>
       </c>
       <c r="E449" t="n">
-        <v>7.902723587411187</v>
+        <v>7.219999999999993</v>
       </c>
       <c r="F449" t="n">
-        <v>9.655145890696087</v>
+        <v>8</v>
       </c>
       <c r="G449" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -13594,10 +13594,10 @@
         <v>7</v>
       </c>
       <c r="E450" t="n">
-        <v>8.688068700620976</v>
+        <v>7.619999999999991</v>
       </c>
       <c r="F450" t="n">
-        <v>9.786904319571825</v>
+        <v>8</v>
       </c>
       <c r="G450" t="n">
         <v>0</v>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -13623,10 +13623,10 @@
         <v>8</v>
       </c>
       <c r="E451" t="n">
-        <v>9.488068700620977</v>
+        <v>8.019999999999991</v>
       </c>
       <c r="F451" t="n">
-        <v>9.786904319571825</v>
+        <v>8</v>
       </c>
       <c r="G451" t="n">
         <v>0</v>
@@ -13640,7 +13640,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -13652,10 +13652,10 @@
         <v>9</v>
       </c>
       <c r="E452" t="n">
-        <v>10.28806870062098</v>
+        <v>8.419999999999996</v>
       </c>
       <c r="F452" t="n">
-        <v>9.786904319571825</v>
+        <v>8</v>
       </c>
       <c r="G452" t="n">
         <v>0</v>
@@ -13669,7 +13669,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -13681,13 +13681,13 @@
         <v>10</v>
       </c>
       <c r="E453" t="n">
-        <v>11.07341381383076</v>
+        <v>8.820000000000002</v>
       </c>
       <c r="F453" t="n">
-        <v>9.918662748447563</v>
+        <v>8</v>
       </c>
       <c r="G453" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -13710,13 +13710,13 @@
         <v>11</v>
       </c>
       <c r="E454" t="n">
-        <v>11.82961116288769</v>
+        <v>9.220000000000008</v>
       </c>
       <c r="F454" t="n">
-        <v>10.17974811624759</v>
+        <v>8</v>
       </c>
       <c r="G454" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -13739,13 +13739,13 @@
         <v>12</v>
       </c>
       <c r="E455" t="n">
-        <v>12.58580851194462</v>
+        <v>9.620000000000013</v>
       </c>
       <c r="F455" t="n">
-        <v>10.44083348404761</v>
+        <v>8</v>
       </c>
       <c r="G455" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -13768,13 +13768,13 @@
         <v>13</v>
       </c>
       <c r="E456" t="n">
-        <v>13.34200586100155</v>
+        <v>10.02000000000002</v>
       </c>
       <c r="F456" t="n">
-        <v>10.70191885184764</v>
+        <v>8</v>
       </c>
       <c r="G456" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -13797,10 +13797,10 @@
         <v>14</v>
       </c>
       <c r="E457" t="n">
-        <v>14.12735097421134</v>
+        <v>10.42000000000002</v>
       </c>
       <c r="F457" t="n">
-        <v>10.83367728072337</v>
+        <v>8</v>
       </c>
       <c r="G457" t="n">
         <v>0</v>
@@ -13814,7 +13814,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -13826,13 +13826,13 @@
         <v>15</v>
       </c>
       <c r="E458" t="n">
-        <v>14.91269608742112</v>
+        <v>10.82000000000003</v>
       </c>
       <c r="F458" t="n">
-        <v>10.96543570959911</v>
+        <v>8</v>
       </c>
       <c r="G458" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -13855,13 +13855,13 @@
         <v>16</v>
       </c>
       <c r="E459" t="n">
-        <v>15.66889343647805</v>
+        <v>11.22000000000004</v>
       </c>
       <c r="F459" t="n">
-        <v>11.22652107739914</v>
+        <v>8</v>
       </c>
       <c r="G459" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -13884,13 +13884,13 @@
         <v>17</v>
       </c>
       <c r="E460" t="n">
-        <v>16.42509078553498</v>
+        <v>11.62000000000004</v>
       </c>
       <c r="F460" t="n">
-        <v>11.48760644519916</v>
+        <v>8</v>
       </c>
       <c r="G460" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -13913,13 +13913,13 @@
         <v>18</v>
       </c>
       <c r="E461" t="n">
-        <v>17.18128813459191</v>
+        <v>12.02000000000005</v>
       </c>
       <c r="F461" t="n">
-        <v>11.74869181299919</v>
+        <v>8</v>
       </c>
       <c r="G461" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -13942,13 +13942,13 @@
         <v>19</v>
       </c>
       <c r="E462" t="n">
-        <v>17.93748548364884</v>
+        <v>12.42000000000005</v>
       </c>
       <c r="F462" t="n">
-        <v>12.00977718079921</v>
+        <v>8</v>
       </c>
       <c r="G462" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -13959,7 +13959,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -13971,13 +13971,13 @@
         <v>20</v>
       </c>
       <c r="E463" t="n">
-        <v>18.69368283270577</v>
+        <v>12.82000000000006</v>
       </c>
       <c r="F463" t="n">
-        <v>12.27086254859924</v>
+        <v>8</v>
       </c>
       <c r="G463" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -13988,7 +13988,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -14000,10 +14000,10 @@
         <v>21</v>
       </c>
       <c r="E464" t="n">
-        <v>19.47902794591556</v>
+        <v>13.22000000000006</v>
       </c>
       <c r="F464" t="n">
-        <v>12.40262097747497</v>
+        <v>8</v>
       </c>
       <c r="G464" t="n">
         <v>0</v>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -14029,10 +14029,10 @@
         <v>22</v>
       </c>
       <c r="E465" t="n">
-        <v>20.27902794591556</v>
+        <v>13.62000000000007</v>
       </c>
       <c r="F465" t="n">
-        <v>12.40262097747497</v>
+        <v>8</v>
       </c>
       <c r="G465" t="n">
         <v>0</v>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -14058,10 +14058,10 @@
         <v>23</v>
       </c>
       <c r="E466" t="n">
-        <v>21.07902794591556</v>
+        <v>14.02000000000008</v>
       </c>
       <c r="F466" t="n">
-        <v>12.40262097747497</v>
+        <v>8</v>
       </c>
       <c r="G466" t="n">
         <v>0</v>
@@ -14075,7 +14075,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -14087,10 +14087,10 @@
         <v>24</v>
       </c>
       <c r="E467" t="n">
-        <v>21.87902794591556</v>
+        <v>14.42000000000008</v>
       </c>
       <c r="F467" t="n">
-        <v>12.40262097747497</v>
+        <v>8</v>
       </c>
       <c r="G467" t="n">
         <v>0</v>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -14116,13 +14116,13 @@
         <v>25</v>
       </c>
       <c r="E468" t="n">
-        <v>22.66437305912535</v>
+        <v>14.82000000000009</v>
       </c>
       <c r="F468" t="n">
-        <v>12.53437940635071</v>
+        <v>8</v>
       </c>
       <c r="G468" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -14145,13 +14145,13 @@
         <v>26</v>
       </c>
       <c r="E469" t="n">
-        <v>23.42057040818228</v>
+        <v>15.22000000000009</v>
       </c>
       <c r="F469" t="n">
-        <v>12.79546477415074</v>
+        <v>8</v>
       </c>
       <c r="G469" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -14162,7 +14162,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -14174,13 +14174,13 @@
         <v>27</v>
       </c>
       <c r="E470" t="n">
-        <v>24.17676775723921</v>
+        <v>15.6200000000001</v>
       </c>
       <c r="F470" t="n">
-        <v>13.05655014195076</v>
+        <v>8</v>
       </c>
       <c r="G470" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -14203,13 +14203,13 @@
         <v>28</v>
       </c>
       <c r="E471" t="n">
-        <v>24.93296510629614</v>
+        <v>16.0200000000001</v>
       </c>
       <c r="F471" t="n">
-        <v>13.31763550975079</v>
+        <v>8</v>
       </c>
       <c r="G471" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -14232,13 +14232,13 @@
         <v>29</v>
       </c>
       <c r="E472" t="n">
-        <v>25.63230972484649</v>
+        <v>16.42000000000011</v>
       </c>
       <c r="F472" t="n">
-        <v>13.69848237520587</v>
+        <v>8</v>
       </c>
       <c r="G472" t="n">
-        <v>0.6648933402869011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -14249,7 +14249,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -14261,13 +14261,13 @@
         <v>30</v>
       </c>
       <c r="E473" t="n">
-        <v>26.2618958016483</v>
+        <v>16.82000000000011</v>
       </c>
       <c r="F473" t="n">
-        <v>14.1920625327257</v>
+        <v>8</v>
       </c>
       <c r="G473" t="n">
-        <v>0.6648933402869011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -14290,13 +14290,13 @@
         <v>31</v>
       </c>
       <c r="E474" t="n">
-        <v>26.96124042019865</v>
+        <v>17.22000000000012</v>
       </c>
       <c r="F474" t="n">
-        <v>14.57290939818079</v>
+        <v>8</v>
       </c>
       <c r="G474" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -14319,13 +14319,13 @@
         <v>32</v>
       </c>
       <c r="E475" t="n">
-        <v>27.71743776925558</v>
+        <v>17.62000000000013</v>
       </c>
       <c r="F475" t="n">
-        <v>14.83399476598082</v>
+        <v>8</v>
       </c>
       <c r="G475" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -14348,13 +14348,13 @@
         <v>33</v>
       </c>
       <c r="E476" t="n">
-        <v>28.47363511831251</v>
+        <v>18.02000000000013</v>
       </c>
       <c r="F476" t="n">
-        <v>15.09508013378084</v>
+        <v>8</v>
       </c>
       <c r="G476" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -14377,13 +14377,13 @@
         <v>34</v>
       </c>
       <c r="E477" t="n">
-        <v>29.22983246736944</v>
+        <v>18.42000000000014</v>
       </c>
       <c r="F477" t="n">
-        <v>15.35616550158086</v>
+        <v>8</v>
       </c>
       <c r="G477" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -14406,13 +14406,13 @@
         <v>35</v>
       </c>
       <c r="E478" t="n">
-        <v>29.98602981642637</v>
+        <v>18.82000000000014</v>
       </c>
       <c r="F478" t="n">
-        <v>15.61725086938089</v>
+        <v>8</v>
       </c>
       <c r="G478" t="n">
-        <v>0.3324466701434505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -14435,13 +14435,13 @@
         <v>36</v>
       </c>
       <c r="E479" t="n">
-        <v>30.59171320445215</v>
+        <v>19.22000000000015</v>
       </c>
       <c r="F479" t="n">
-        <v>16.11402597000842</v>
+        <v>8</v>
       </c>
       <c r="G479" t="n">
-        <v>1.041415121047385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -14452,7 +14452,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -14464,13 +14464,13 @@
         <v>37</v>
       </c>
       <c r="E480" t="n">
-        <v>30.99571267996953</v>
+        <v>19.62000000000015</v>
       </c>
       <c r="F480" t="n">
-        <v>16.80452175115533</v>
+        <v>8</v>
       </c>
       <c r="G480" t="n">
-        <v>1.041415121047385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -14493,13 +14493,13 @@
         <v>38</v>
       </c>
       <c r="E481" t="n">
-        <v>31.39971215548691</v>
+        <v>20.02000000000016</v>
       </c>
       <c r="F481" t="n">
-        <v>17.49501753230225</v>
+        <v>8</v>
       </c>
       <c r="G481" t="n">
-        <v>1.041415121047385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -14522,13 +14522,13 @@
         <v>39</v>
       </c>
       <c r="E482" t="n">
-        <v>31.80371163100429</v>
+        <v>20.42000000000017</v>
       </c>
       <c r="F482" t="n">
-        <v>18.18551331344916</v>
+        <v>8</v>
       </c>
       <c r="G482" t="n">
-        <v>1.041415121047385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -14539,7 +14539,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -14551,13 +14551,13 @@
         <v>40</v>
       </c>
       <c r="E483" t="n">
-        <v>32.20771110652167</v>
+        <v>20.82000000000017</v>
       </c>
       <c r="F483" t="n">
-        <v>18.87600909459607</v>
+        <v>8</v>
       </c>
       <c r="G483" t="n">
-        <v>1.041415121047385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -14568,7 +14568,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -14580,13 +14580,13 @@
         <v>41</v>
       </c>
       <c r="E484" t="n">
-        <v>32.61171058203905</v>
+        <v>21.22000000000018</v>
       </c>
       <c r="F484" t="n">
-        <v>19.56650487574298</v>
+        <v>8</v>
       </c>
       <c r="G484" t="n">
-        <v>1.041415121047385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -14597,7 +14597,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -14609,13 +14609,13 @@
         <v>42</v>
       </c>
       <c r="E485" t="n">
-        <v>33.12203264842172</v>
+        <v>21.62000000000018</v>
       </c>
       <c r="F485" t="n">
-        <v>20.17781381481161</v>
+        <v>8</v>
       </c>
       <c r="G485" t="n">
-        <v>0.7089684509039347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -14626,7 +14626,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -14638,13 +14638,13 @@
         <v>43</v>
       </c>
       <c r="E486" t="n">
-        <v>33.80391766462173</v>
+        <v>22.02000000000019</v>
       </c>
       <c r="F486" t="n">
-        <v>20.58910453328726</v>
+        <v>8</v>
       </c>
       <c r="G486" t="n">
-        <v>0.3765217807604841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -14667,13 +14667,13 @@
         <v>44</v>
       </c>
       <c r="E487" t="n">
-        <v>34.54787699117954</v>
+        <v>22.42000000000019</v>
       </c>
       <c r="F487" t="n">
-        <v>20.88325503970812</v>
+        <v>8</v>
       </c>
       <c r="G487" t="n">
-        <v>0.3765217807604841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -14684,7 +14684,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -14696,13 +14696,13 @@
         <v>45</v>
       </c>
       <c r="E488" t="n">
-        <v>35.29183631773734</v>
+        <v>22.8200000000002</v>
       </c>
       <c r="F488" t="n">
-        <v>21.17740554612899</v>
+        <v>8</v>
       </c>
       <c r="G488" t="n">
-        <v>0.3765217807604841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -14725,13 +14725,13 @@
         <v>46</v>
       </c>
       <c r="E489" t="n">
-        <v>35.97372133393735</v>
+        <v>23.21316547723458</v>
       </c>
       <c r="F489" t="n">
-        <v>21.58869626460464</v>
+        <v>8.061468398090369</v>
       </c>
       <c r="G489" t="n">
-        <v>0.7089684509039347</v>
+        <v>0.3544842254519667</v>
       </c>
     </row>
     <row r="490">
@@ -14742,7 +14742,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -14754,13 +14754,13 @@
         <v>47</v>
       </c>
       <c r="E490" t="n">
-        <v>36.65560635013735</v>
+        <v>23.56055005036219</v>
       </c>
       <c r="F490" t="n">
-        <v>21.99998698308028</v>
+        <v>8.255585411269728</v>
       </c>
       <c r="G490" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.708968450903936</v>
       </c>
     </row>
     <row r="491">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -14783,13 +14783,13 @@
         <v>48</v>
       </c>
       <c r="E491" t="n">
-        <v>37.39956567669516</v>
+        <v>23.84960774964091</v>
       </c>
       <c r="F491" t="n">
-        <v>22.29413748950115</v>
+        <v>8.531717627637249</v>
       </c>
       <c r="G491" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.8314014209171754</v>
       </c>
     </row>
     <row r="492">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -14812,13 +14812,13 @@
         <v>49</v>
       </c>
       <c r="E492" t="n">
-        <v>38.14352500325297</v>
+        <v>24.13856462189027</v>
       </c>
       <c r="F492" t="n">
-        <v>22.58828799592201</v>
+        <v>8.807722019919801</v>
       </c>
       <c r="G492" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.6738572904751914</v>
       </c>
     </row>
     <row r="493">
@@ -14829,7 +14829,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -14841,13 +14841,13 @@
         <v>50</v>
       </c>
       <c r="E493" t="n">
-        <v>38.88748432981077</v>
+        <v>24.46182653286436</v>
       </c>
       <c r="F493" t="n">
-        <v>22.88243850234287</v>
+        <v>9.043019735991585</v>
       </c>
       <c r="G493" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.5717767959642197</v>
       </c>
     </row>
     <row r="494">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -14870,13 +14870,13 @@
         <v>51</v>
       </c>
       <c r="E494" t="n">
-        <v>39.63144365636858</v>
+        <v>24.78529902184499</v>
       </c>
       <c r="F494" t="n">
-        <v>23.17658900876373</v>
+        <v>9.277858459040077</v>
       </c>
       <c r="G494" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.7001925439665877</v>
       </c>
     </row>
     <row r="495">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -14899,13 +14899,13 @@
         <v>52</v>
       </c>
       <c r="E495" t="n">
-        <v>40.31332867256859</v>
+        <v>25.10834547784353</v>
       </c>
       <c r="F495" t="n">
-        <v>23.58787972723938</v>
+        <v>9.513009159375873</v>
       </c>
       <c r="G495" t="n">
-        <v>0.7089684509039347</v>
+        <v>0.5379625594666999</v>
       </c>
     </row>
     <row r="496">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -14928,13 +14928,13 @@
         <v>53</v>
       </c>
       <c r="E496" t="n">
-        <v>40.92055576930826</v>
+        <v>25.43609374829333</v>
       </c>
       <c r="F496" t="n">
-        <v>24.10872063671665</v>
+        <v>9.74156098242438</v>
       </c>
       <c r="G496" t="n">
-        <v>0.7089684509039347</v>
+        <v>0.7001925439665877</v>
       </c>
     </row>
     <row r="497">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -14957,13 +14957,13 @@
         <v>54</v>
       </c>
       <c r="E497" t="n">
-        <v>41.60244078550826</v>
+        <v>25.75914020429186</v>
       </c>
       <c r="F497" t="n">
-        <v>24.5200113551923</v>
+        <v>9.976711682760175</v>
       </c>
       <c r="G497" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.5379625594666999</v>
       </c>
     </row>
     <row r="498">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -14986,13 +14986,13 @@
         <v>55</v>
       </c>
       <c r="E498" t="n">
-        <v>42.34640011206607</v>
+        <v>26.10656968906937</v>
       </c>
       <c r="F498" t="n">
-        <v>24.81416186161316</v>
+        <v>10.17486903829701</v>
       </c>
       <c r="G498" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.493098927229231</v>
       </c>
     </row>
     <row r="499">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -15015,13 +15015,13 @@
         <v>56</v>
       </c>
       <c r="E499" t="n">
-        <v>43.09035943862388</v>
+        <v>26.47106435936243</v>
       </c>
       <c r="F499" t="n">
-        <v>25.10831236803402</v>
+        <v>10.33857151210113</v>
       </c>
       <c r="G499" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.3308689427293432</v>
       </c>
     </row>
     <row r="500">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -15044,13 +15044,13 @@
         <v>57</v>
       </c>
       <c r="E500" t="n">
-        <v>43.86913647627142</v>
+        <v>26.82991753017425</v>
       </c>
       <c r="F500" t="n">
-        <v>25.2745458064729</v>
+        <v>10.51245048094057</v>
       </c>
       <c r="G500" t="n">
-        <v>0.04407511061703362</v>
+        <v>0.6059201908606804</v>
       </c>
     </row>
     <row r="501">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -15073,13 +15073,13 @@
         <v>58</v>
       </c>
       <c r="E501" t="n">
-        <v>44.66835955590473</v>
+        <v>27.17366493600925</v>
       </c>
       <c r="F501" t="n">
-        <v>25.30979447994366</v>
+        <v>10.71614777003235</v>
       </c>
       <c r="G501" t="n">
-        <v>0.04407511061703362</v>
+        <v>0.4436902063607926</v>
       </c>
     </row>
     <row r="502">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -15102,13 +15102,13 @@
         <v>59</v>
       </c>
       <c r="E502" t="n">
-        <v>45.46758263553804</v>
+        <v>27.52147210795289</v>
       </c>
       <c r="F502" t="n">
-        <v>25.34504315341442</v>
+        <v>10.91283288829551</v>
       </c>
       <c r="G502" t="n">
-        <v>0.04407511061703362</v>
+        <v>0.6059201908606804</v>
       </c>
     </row>
     <row r="503">
@@ -15119,7 +15119,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -15131,13 +15131,13 @@
         <v>60</v>
       </c>
       <c r="E503" t="n">
-        <v>46.26680571517134</v>
+        <v>27.85189936925637</v>
       </c>
       <c r="F503" t="n">
-        <v>25.38029182688517</v>
+        <v>11.13825301920423</v>
       </c>
       <c r="G503" t="n">
-        <v>0.04407511061703362</v>
+        <v>0.5893825557787276</v>
       </c>
     </row>
     <row r="504">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -15160,13 +15160,13 @@
         <v>61</v>
       </c>
       <c r="E504" t="n">
-        <v>47.06602879480465</v>
+        <v>28.14456447920163</v>
       </c>
       <c r="F504" t="n">
-        <v>25.41554050035593</v>
+        <v>11.40789090577335</v>
       </c>
       <c r="G504" t="n">
-        <v>0.04407511061703362</v>
+        <v>0.9438667812306969</v>
       </c>
     </row>
     <row r="505">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -15189,13 +15189,13 @@
         <v>62</v>
       </c>
       <c r="E505" t="n">
-        <v>47.8448058324522</v>
+        <v>28.39182915610822</v>
       </c>
       <c r="F505" t="n">
-        <v>25.58177393879481</v>
+        <v>11.722139094197</v>
       </c>
       <c r="G505" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.8530358220071586</v>
       </c>
     </row>
     <row r="506">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -15218,13 +15218,13 @@
         <v>63</v>
       </c>
       <c r="E506" t="n">
-        <v>48.58876515901</v>
+        <v>28.6041108891282</v>
       </c>
       <c r="F506" t="n">
-        <v>25.87592444521567</v>
+        <v>12.05873071958118</v>
       </c>
       <c r="G506" t="n">
-        <v>0.3765217807604841</v>
+        <v>1.207520047459128</v>
       </c>
     </row>
     <row r="507">
@@ -15235,7 +15235,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -15247,13 +15247,13 @@
         <v>64</v>
       </c>
       <c r="E507" t="n">
-        <v>49.33272448556781</v>
+        <v>28.7722220200431</v>
       </c>
       <c r="F507" t="n">
-        <v>26.17007495163653</v>
+        <v>12.42121314986456</v>
       </c>
       <c r="G507" t="n">
-        <v>0.3765217807604841</v>
+        <v>1.04529006295924</v>
       </c>
     </row>
     <row r="508">
@@ -15264,7 +15264,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -15276,13 +15276,13 @@
         <v>65</v>
       </c>
       <c r="E508" t="n">
-        <v>50.07668381212562</v>
+        <v>28.99667368857395</v>
       </c>
       <c r="F508" t="n">
-        <v>26.4642254580574</v>
+        <v>12.75178282950161</v>
       </c>
       <c r="G508" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.8830600784593523</v>
       </c>
     </row>
     <row r="509">
@@ -15293,7 +15293,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -15305,13 +15305,13 @@
         <v>66</v>
       </c>
       <c r="E509" t="n">
-        <v>50.82064313868342</v>
+        <v>29.27157159274377</v>
       </c>
       <c r="F509" t="n">
-        <v>26.75837596447826</v>
+        <v>13.04175870243705</v>
       </c>
       <c r="G509" t="n">
-        <v>0.3765217807604841</v>
+        <v>0.7208300939594645</v>
       </c>
     </row>
     <row r="510">
@@ -15322,7 +15322,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -15334,13 +15334,13 @@
         <v>67</v>
       </c>
       <c r="E510" t="n">
-        <v>51.40384998787128</v>
+        <v>29.58638974208484</v>
       </c>
       <c r="F510" t="n">
-        <v>27.28135554170309</v>
+        <v>13.28806633478046</v>
       </c>
       <c r="G510" t="n">
-        <v>1.085490231664419</v>
+        <v>0.5907149749226344</v>
       </c>
     </row>
     <row r="511">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -15363,13 +15363,13 @@
         <v>68</v>
       </c>
       <c r="E511" t="n">
-        <v>51.7770332937096</v>
+        <v>29.94716558281833</v>
       </c>
       <c r="F511" t="n">
-        <v>27.98898130454923</v>
+        <v>13.4559896779933</v>
       </c>
       <c r="G511" t="n">
-        <v>1.085490231664419</v>
+        <v>0.2362307494706655</v>
       </c>
     </row>
     <row r="512">
@@ -15380,7 +15380,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -15392,13 +15392,13 @@
         <v>69</v>
       </c>
       <c r="E512" t="n">
-        <v>52.15021659954792</v>
+        <v>30.34379773572768</v>
       </c>
       <c r="F512" t="n">
-        <v>28.69660706739537</v>
+        <v>13.48824478194946</v>
       </c>
       <c r="G512" t="n">
-        <v>1.085490231664419</v>
+        <v>-0.1182534759813003</v>
       </c>
     </row>
     <row r="513">
@@ -15409,7 +15409,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -15421,13 +15421,13 @@
         <v>70</v>
       </c>
       <c r="E513" t="n">
-        <v>52.52339990538625</v>
+        <v>30.74291960999415</v>
       </c>
       <c r="F513" t="n">
-        <v>29.40423283024151</v>
+        <v>13.46936108306258</v>
       </c>
       <c r="G513" t="n">
-        <v>1.085490231664419</v>
+        <v>0.04397650851858748</v>
       </c>
     </row>
     <row r="514">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -15450,13 +15450,13 @@
         <v>71</v>
       </c>
       <c r="E514" t="n">
-        <v>53.0062915857815</v>
+        <v>31.14255750873386</v>
       </c>
       <c r="F514" t="n">
-        <v>30.03743331620732</v>
+        <v>13.46290220164259</v>
       </c>
       <c r="G514" t="n">
-        <v>0.7530435615209687</v>
+        <v>-0.09347934441165018</v>
       </c>
     </row>
     <row r="515">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -15479,13 +15479,13 @@
         <v>72</v>
       </c>
       <c r="E515" t="n">
-        <v>53.6693925737391</v>
+        <v>31.53974408101606</v>
       </c>
       <c r="F515" t="n">
-        <v>30.478369037364</v>
+        <v>13.48740288023408</v>
       </c>
       <c r="G515" t="n">
-        <v>0.4205968913775182</v>
+        <v>0.2610048810403161</v>
       </c>
     </row>
     <row r="516">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -15508,13 +15508,13 @@
         <v>73</v>
       </c>
       <c r="E516" t="n">
-        <v>54.44008891647026</v>
+        <v>31.92053390105474</v>
       </c>
       <c r="F516" t="n">
-        <v>30.67875461000614</v>
+        <v>13.6092111998499</v>
       </c>
       <c r="G516" t="n">
-        <v>0.08815022123406768</v>
+        <v>0.3720728504210928</v>
       </c>
     </row>
     <row r="517">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -15537,13 +15537,13 @@
         <v>74</v>
       </c>
       <c r="E517" t="n">
-        <v>55.23698274401664</v>
+        <v>32.28413524967632</v>
       </c>
       <c r="F517" t="n">
-        <v>30.74918349341685</v>
+        <v>13.77527276089234</v>
       </c>
       <c r="G517" t="n">
-        <v>0.08815022123406768</v>
+        <v>0.5008723687584489</v>
       </c>
     </row>
     <row r="518">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -15566,13 +15566,13 @@
         <v>75</v>
       </c>
       <c r="E518" t="n">
-        <v>56.03387657156301</v>
+        <v>32.6473463886831</v>
       </c>
       <c r="F518" t="n">
-        <v>30.81961237682757</v>
+        <v>13.94180363821852</v>
       </c>
       <c r="G518" t="n">
-        <v>0.08815022123406768</v>
+        <v>0.3386423842585611</v>
       </c>
     </row>
     <row r="519">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -15595,13 +15595,13 @@
         <v>76</v>
       </c>
       <c r="E519" t="n">
-        <v>56.74173269170441</v>
+        <v>33.0240309305217</v>
       </c>
       <c r="F519" t="n">
-        <v>31.15513820342257</v>
+        <v>14.07636734679522</v>
       </c>
       <c r="G519" t="n">
-        <v>0.7971186721380024</v>
+        <v>0.3488377279092436</v>
       </c>
     </row>
     <row r="520">
@@ -15612,7 +15612,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -15624,13 +15624,13 @@
         <v>77</v>
       </c>
       <c r="E520" t="n">
-        <v>57.38476170976281</v>
+        <v>33.41079029082005</v>
       </c>
       <c r="F520" t="n">
-        <v>31.62486249740486</v>
+        <v>14.17509722627602</v>
       </c>
       <c r="G520" t="n">
-        <v>0.4646720019945518</v>
+        <v>0.1227786739955423</v>
       </c>
     </row>
     <row r="521">
@@ -15641,7 +15641,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -15653,13 +15653,13 @@
         <v>78</v>
       </c>
       <c r="E521" t="n">
-        <v>58.09993658920976</v>
+        <v>33.80290538214014</v>
       </c>
       <c r="F521" t="n">
-        <v>31.98336618191596</v>
+        <v>14.25192932006641</v>
       </c>
       <c r="G521" t="n">
-        <v>0.4646720019945518</v>
+        <v>0.2844075183416468</v>
       </c>
     </row>
     <row r="522">
@@ -15670,7 +15670,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -15682,13 +15682,13 @@
         <v>79</v>
       </c>
       <c r="E522" t="n">
-        <v>58.86105531281152</v>
+        <v>34.19340742147968</v>
       </c>
       <c r="F522" t="n">
-        <v>32.21751467967992</v>
+        <v>14.33656395761676</v>
       </c>
       <c r="G522" t="n">
-        <v>0.1322253318511013</v>
+        <v>0.122177533841759</v>
       </c>
     </row>
     <row r="523">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -15711,13 +15711,13 @@
         <v>80</v>
       </c>
       <c r="E523" t="n">
-        <v>58.88</v>
+        <v>34.59245212232799</v>
       </c>
       <c r="F523" t="n">
-        <v>32</v>
+        <v>14.35701368442466</v>
       </c>
       <c r="G523" t="n">
-        <v>0</v>
+        <v>-0.04005245065812879</v>
       </c>
     </row>
     <row r="524">
@@ -15737,16 +15737,16 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E524" t="n">
-        <v>5.12</v>
+        <v>34.39276714470851</v>
       </c>
       <c r="F524" t="n">
-        <v>8</v>
+        <v>14.35173810997798</v>
       </c>
       <c r="G524" t="n">
-        <v>0</v>
+        <v>0.1371896620678541</v>
       </c>
     </row>
     <row r="525">
@@ -15766,16 +15766,16 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E525" t="n">
-        <v>5.22</v>
+        <v>34.54020670302395</v>
       </c>
       <c r="F525" t="n">
-        <v>8</v>
+        <v>14.37879619108192</v>
       </c>
       <c r="G525" t="n">
-        <v>0</v>
+        <v>0.2701212466123417</v>
       </c>
     </row>
     <row r="526">
@@ -15795,16 +15795,16 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="E526" t="n">
-        <v>5.619999999999998</v>
+        <v>34.35166081137834</v>
       </c>
       <c r="F526" t="n">
-        <v>8</v>
+        <v>14.31282370654329</v>
       </c>
       <c r="G526" t="n">
-        <v>0</v>
+        <v>0.4473633593383264</v>
       </c>
     </row>
     <row r="527">
@@ -15824,16 +15824,16 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E527" t="n">
-        <v>6.019999999999997</v>
+        <v>34.4838058605791</v>
       </c>
       <c r="F527" t="n">
-        <v>8</v>
+        <v>14.38359269043459</v>
       </c>
       <c r="G527" t="n">
-        <v>0</v>
+        <v>0.5802949438828149</v>
       </c>
     </row>
     <row r="528">
@@ -15853,16 +15853,16 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E528" t="n">
-        <v>6.419999999999995</v>
+        <v>34.32439366074339</v>
       </c>
       <c r="F528" t="n">
-        <v>8</v>
+        <v>14.26321963482754</v>
       </c>
       <c r="G528" t="n">
-        <v>0</v>
+        <v>0.7575370566087996</v>
       </c>
     </row>
     <row r="529">
@@ -15882,16 +15882,16 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E529" t="n">
-        <v>6.819999999999994</v>
+        <v>34.51276465661397</v>
       </c>
       <c r="F529" t="n">
-        <v>8</v>
+        <v>14.42742980813474</v>
       </c>
       <c r="G529" t="n">
-        <v>0</v>
+        <v>0.6561433162963697</v>
       </c>
     </row>
     <row r="530">
@@ -15911,16 +15911,16 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="E530" t="n">
-        <v>7.219999999999993</v>
+        <v>34.3629321328946</v>
       </c>
       <c r="F530" t="n">
-        <v>8</v>
+        <v>14.29532327230657</v>
       </c>
       <c r="G530" t="n">
-        <v>0</v>
+        <v>0.8333854290223544</v>
       </c>
     </row>
     <row r="531">
@@ -15940,16 +15940,16 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="E531" t="n">
-        <v>7.619999999999991</v>
+        <v>34.4660047496825</v>
       </c>
       <c r="F531" t="n">
-        <v>8</v>
+        <v>14.40427219560678</v>
       </c>
       <c r="G531" t="n">
-        <v>0</v>
+        <v>0.7725491848348964</v>
       </c>
     </row>
     <row r="532">
@@ -15969,16 +15969,16 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E532" t="n">
-        <v>8.019999999999991</v>
+        <v>34.33252949011213</v>
       </c>
       <c r="F532" t="n">
-        <v>8</v>
+        <v>14.25565767055872</v>
       </c>
       <c r="G532" t="n">
-        <v>0</v>
+        <v>0.9497912975608811</v>
       </c>
     </row>
     <row r="533">
@@ -15998,16 +15998,16 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E533" t="n">
-        <v>8.419999999999996</v>
+        <v>34.48605395947536</v>
       </c>
       <c r="F533" t="n">
-        <v>8</v>
+        <v>14.45283487616221</v>
       </c>
       <c r="G533" t="n">
-        <v>0</v>
+        <v>0.8483975572484512</v>
       </c>
     </row>
     <row r="534">
@@ -16027,16 +16027,16 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E534" t="n">
-        <v>8.820000000000002</v>
+        <v>34.60788409825718</v>
       </c>
       <c r="F534" t="n">
-        <v>8</v>
+        <v>14.61113629516102</v>
       </c>
       <c r="G534" t="n">
-        <v>0</v>
+        <v>1.025639669974436</v>
       </c>
     </row>
     <row r="535">
@@ -16056,16 +16056,16 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E535" t="n">
-        <v>9.220000000000008</v>
+        <v>34.83878783960393</v>
       </c>
       <c r="F535" t="n">
-        <v>8</v>
+        <v>14.93723187445289</v>
       </c>
       <c r="G535" t="n">
-        <v>0</v>
+        <v>0.8634096854745481</v>
       </c>
     </row>
     <row r="536">
@@ -16085,16 +16085,16 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E536" t="n">
-        <v>9.620000000000013</v>
+        <v>35.11933044438077</v>
       </c>
       <c r="F536" t="n">
-        <v>8</v>
+        <v>15.22175025963504</v>
       </c>
       <c r="G536" t="n">
-        <v>0</v>
+        <v>0.7011797009746603</v>
       </c>
     </row>
     <row r="537">
@@ -16114,16 +16114,16 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E537" t="n">
-        <v>10.02000000000002</v>
+        <v>35.44890891665624</v>
       </c>
       <c r="F537" t="n">
-        <v>8</v>
+        <v>15.44684180726937</v>
       </c>
       <c r="G537" t="n">
-        <v>0</v>
+        <v>0.468090998658341</v>
       </c>
     </row>
     <row r="538">
@@ -16143,16 +16143,16 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E538" t="n">
-        <v>10.42000000000002</v>
+        <v>35.81109081901796</v>
       </c>
       <c r="F538" t="n">
-        <v>8</v>
+        <v>15.61643515076246</v>
       </c>
       <c r="G538" t="n">
-        <v>0</v>
+        <v>0.399152326817398</v>
       </c>
     </row>
     <row r="539">
@@ -16172,16 +16172,16 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E539" t="n">
-        <v>10.82000000000003</v>
+        <v>36.16731013120071</v>
       </c>
       <c r="F539" t="n">
-        <v>8</v>
+        <v>15.79743975354834</v>
       </c>
       <c r="G539" t="n">
-        <v>0</v>
+        <v>0.5613823113172858</v>
       </c>
     </row>
     <row r="540">
@@ -16201,16 +16201,16 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E540" t="n">
-        <v>11.22000000000004</v>
+        <v>36.4674094621527</v>
       </c>
       <c r="F540" t="n">
-        <v>8</v>
+        <v>16.05877832325228</v>
       </c>
       <c r="G540" t="n">
-        <v>0</v>
+        <v>0.9158665367692551</v>
       </c>
     </row>
     <row r="541">
@@ -16230,16 +16230,16 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E541" t="n">
-        <v>11.62000000000004</v>
+        <v>36.65813794019881</v>
       </c>
       <c r="F541" t="n">
-        <v>8</v>
+        <v>16.40803482514587</v>
       </c>
       <c r="G541" t="n">
-        <v>0</v>
+        <v>1.270350762221224</v>
       </c>
     </row>
     <row r="542">
@@ -16259,16 +16259,16 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="E542" t="n">
-        <v>12.02000000000005</v>
+        <v>36.72309324076493</v>
       </c>
       <c r="F542" t="n">
-        <v>8</v>
+        <v>16.59713863693607</v>
       </c>
       <c r="G542" t="n">
-        <v>0</v>
+        <v>1.189235769971281</v>
       </c>
     </row>
     <row r="543">
@@ -16288,16 +16288,16 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E543" t="n">
-        <v>12.42000000000005</v>
+        <v>36.82308275139256</v>
       </c>
       <c r="F543" t="n">
-        <v>8</v>
+        <v>16.98299064603522</v>
       </c>
       <c r="G543" t="n">
-        <v>0</v>
+        <v>1.481804105365502</v>
       </c>
     </row>
     <row r="544">
@@ -16317,16 +16317,16 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="E544" t="n">
-        <v>12.82000000000006</v>
+        <v>36.88672857783258</v>
       </c>
       <c r="F544" t="n">
-        <v>8</v>
+        <v>17.37745746767983</v>
       </c>
       <c r="G544" t="n">
-        <v>0</v>
+        <v>1.319574120865615</v>
       </c>
     </row>
     <row r="545">
@@ -16346,16 +16346,16 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E545" t="n">
-        <v>13.22000000000006</v>
+        <v>37.01862900807443</v>
       </c>
       <c r="F545" t="n">
-        <v>8</v>
+        <v>17.75442327171853</v>
       </c>
       <c r="G545" t="n">
-        <v>0</v>
+        <v>1.124456979585926</v>
       </c>
     </row>
     <row r="546">
@@ -16375,16 +16375,16 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E546" t="n">
-        <v>13.62000000000007</v>
+        <v>37.24379187880263</v>
       </c>
       <c r="F546" t="n">
-        <v>8</v>
+        <v>18.08253779151029</v>
       </c>
       <c r="G546" t="n">
-        <v>0</v>
+        <v>0.7699727541339572</v>
       </c>
     </row>
     <row r="547">
@@ -16404,16 +16404,16 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E547" t="n">
-        <v>14.02000000000008</v>
+        <v>37.56571824245006</v>
       </c>
       <c r="F547" t="n">
-        <v>8</v>
+        <v>18.317097255931</v>
       </c>
       <c r="G547" t="n">
-        <v>0</v>
+        <v>0.4492848413798898</v>
       </c>
     </row>
     <row r="548">
@@ -16433,16 +16433,16 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E548" t="n">
-        <v>14.42000000000008</v>
+        <v>37.89316812392833</v>
       </c>
       <c r="F548" t="n">
-        <v>8</v>
+        <v>18.54322560791853</v>
       </c>
       <c r="G548" t="n">
-        <v>0</v>
+        <v>0.8037690668318591</v>
       </c>
     </row>
     <row r="549">
@@ -16462,16 +16462,16 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="E549" t="n">
-        <v>14.82000000000009</v>
+        <v>38.1901707256706</v>
       </c>
       <c r="F549" t="n">
-        <v>8</v>
+        <v>18.81051630951504</v>
       </c>
       <c r="G549" t="n">
-        <v>0</v>
+        <v>0.6415390823319713</v>
       </c>
     </row>
     <row r="550">
@@ -16491,16 +16491,16 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="E550" t="n">
-        <v>15.22000000000009</v>
+        <v>38.53181151460427</v>
       </c>
       <c r="F550" t="n">
-        <v>8</v>
+        <v>19.01697377157059</v>
       </c>
       <c r="G550" t="n">
-        <v>0</v>
+        <v>0.4176410680289964</v>
       </c>
     </row>
     <row r="551">
@@ -16520,16 +16520,16 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E551" t="n">
-        <v>15.6200000000001</v>
+        <v>38.90194133433445</v>
       </c>
       <c r="F551" t="n">
-        <v>8</v>
+        <v>19.16845160640204</v>
       </c>
       <c r="G551" t="n">
-        <v>0</v>
+        <v>0.3509417103522887</v>
       </c>
     </row>
     <row r="552">
@@ -16549,16 +16549,16 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="E552" t="n">
-        <v>16.0200000000001</v>
+        <v>39.26461191716659</v>
       </c>
       <c r="F552" t="n">
-        <v>8</v>
+        <v>19.33583041414507</v>
       </c>
       <c r="G552" t="n">
-        <v>0</v>
+        <v>0.537110293464786</v>
       </c>
     </row>
     <row r="553">
@@ -16578,16 +16578,16 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="E553" t="n">
-        <v>16.42000000000011</v>
+        <v>39.62024629368372</v>
       </c>
       <c r="F553" t="n">
-        <v>8</v>
+        <v>19.51817444697422</v>
       </c>
       <c r="G553" t="n">
-        <v>0</v>
+        <v>0.3923526390449341</v>
       </c>
     </row>
     <row r="554">
@@ -16607,16 +16607,16 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="E554" t="n">
-        <v>16.82000000000011</v>
+        <v>39.96607480911825</v>
       </c>
       <c r="F554" t="n">
-        <v>8</v>
+        <v>19.71636964911584</v>
       </c>
       <c r="G554" t="n">
-        <v>0</v>
+        <v>0.6850486009980097</v>
       </c>
     </row>
     <row r="555">
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="E555" t="n">
-        <v>17.22000000000012</v>
+        <v>40.23164584371745</v>
       </c>
       <c r="F555" t="n">
-        <v>8</v>
+        <v>20.01273004126473</v>
       </c>
       <c r="G555" t="n">
-        <v>0</v>
+        <v>1.039532826449979</v>
       </c>
     </row>
     <row r="556">
@@ -16665,16 +16665,16 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="E556" t="n">
-        <v>17.62000000000013</v>
+        <v>40.45799694976147</v>
       </c>
       <c r="F556" t="n">
-        <v>8</v>
+        <v>20.34200202822124</v>
       </c>
       <c r="G556" t="n">
-        <v>0</v>
+        <v>0.8773028419500912</v>
       </c>
     </row>
     <row r="557">
@@ -16694,16 +16694,16 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="E557" t="n">
-        <v>18.02000000000013</v>
+        <v>40.55618696551842</v>
       </c>
       <c r="F557" t="n">
-        <v>8</v>
+        <v>20.45537112906193</v>
       </c>
       <c r="G557" t="n">
-        <v>0</v>
+        <v>0.8164665977626333</v>
       </c>
     </row>
     <row r="558">
@@ -16723,16 +16723,16 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="E558" t="n">
-        <v>18.42000000000014</v>
+        <v>40.42806927867336</v>
       </c>
       <c r="F558" t="n">
-        <v>8</v>
+        <v>20.30203998240781</v>
       </c>
       <c r="G558" t="n">
-        <v>0</v>
+        <v>0.9718734963766362</v>
       </c>
     </row>
     <row r="559">
@@ -16752,16 +16752,16 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E559" t="n">
-        <v>18.82000000000014</v>
+        <v>40.51511511916201</v>
       </c>
       <c r="F559" t="n">
-        <v>8</v>
+        <v>20.42417455520931</v>
       </c>
       <c r="G559" t="n">
-        <v>0</v>
+        <v>0.9110372521891783</v>
       </c>
     </row>
     <row r="560">
@@ -16781,16 +16781,16 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="E560" t="n">
-        <v>19.22000000000015</v>
+        <v>40.40343338588526</v>
       </c>
       <c r="F560" t="n">
-        <v>8</v>
+        <v>20.25855718768726</v>
       </c>
       <c r="G560" t="n">
-        <v>0</v>
+        <v>1.088279364915163</v>
       </c>
     </row>
     <row r="561">
@@ -16810,16 +16810,16 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E561" t="n">
-        <v>19.62000000000015</v>
+        <v>40.47570504738187</v>
       </c>
       <c r="F561" t="n">
-        <v>8</v>
+        <v>20.38997499152029</v>
       </c>
       <c r="G561" t="n">
-        <v>0</v>
+        <v>1.027443120727705</v>
       </c>
     </row>
     <row r="562">
@@ -16839,16 +16839,16 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E562" t="n">
-        <v>20.02000000000016</v>
+        <v>40.38401444595266</v>
       </c>
       <c r="F562" t="n">
-        <v>8</v>
+        <v>20.21250737311573</v>
       </c>
       <c r="G562" t="n">
-        <v>0</v>
+        <v>1.20468523345369</v>
       </c>
     </row>
     <row r="563">
@@ -16868,16 +16868,16 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E563" t="n">
-        <v>20.42000000000017</v>
+        <v>40.48286173916374</v>
       </c>
       <c r="F563" t="n">
-        <v>8</v>
+        <v>20.44202387737567</v>
       </c>
       <c r="G563" t="n">
-        <v>0</v>
+        <v>1.10329149314126</v>
       </c>
     </row>
     <row r="564">
@@ -16897,16 +16897,16 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E564" t="n">
-        <v>20.82000000000017</v>
+        <v>40.40316267668057</v>
       </c>
       <c r="F564" t="n">
-        <v>8</v>
+        <v>20.25878818799085</v>
       </c>
       <c r="G564" t="n">
-        <v>0</v>
+        <v>1.255914194648614</v>
       </c>
     </row>
     <row r="565">
@@ -16926,16 +16926,16 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="E565" t="n">
-        <v>21.22000000000018</v>
+        <v>40.49012754066816</v>
       </c>
       <c r="F565" t="n">
-        <v>8</v>
+        <v>20.49306521532063</v>
       </c>
       <c r="G565" t="n">
-        <v>0</v>
+        <v>1.154520454336184</v>
       </c>
     </row>
     <row r="566">
@@ -16955,16 +16955,16 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E566" t="n">
-        <v>21.62000000000018</v>
+        <v>40.42166774619197</v>
       </c>
       <c r="F566" t="n">
-        <v>8</v>
+        <v>20.30540813841461</v>
       </c>
       <c r="G566" t="n">
-        <v>0</v>
+        <v>1.331762567062169</v>
       </c>
     </row>
     <row r="567">
@@ -16984,16 +16984,16 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="E567" t="n">
-        <v>22.02000000000019</v>
+        <v>40.49063007854303</v>
       </c>
       <c r="F567" t="n">
-        <v>8</v>
+        <v>20.54560141438119</v>
       </c>
       <c r="G567" t="n">
-        <v>0</v>
+        <v>1.230368826749739</v>
       </c>
     </row>
     <row r="568">
@@ -17013,16 +17013,16 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="E568" t="n">
-        <v>22.42000000000019</v>
+        <v>40.54467320334626</v>
       </c>
       <c r="F568" t="n">
-        <v>8</v>
+        <v>20.73790654336671</v>
       </c>
       <c r="G568" t="n">
-        <v>0</v>
+        <v>1.407610939475724</v>
       </c>
     </row>
     <row r="569">
@@ -17042,16 +17042,16 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E569" t="n">
-        <v>22.8200000000002</v>
+        <v>40.52538312233837</v>
       </c>
       <c r="F569" t="n">
-        <v>8</v>
+        <v>20.53908548123459</v>
       </c>
       <c r="G569" t="n">
-        <v>0</v>
+        <v>1.584853052201709</v>
       </c>
     </row>
     <row r="570">
@@ -17071,16 +17071,16 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="E570" t="n">
-        <v>23.21316547723458</v>
+        <v>40.5481138319845</v>
       </c>
       <c r="F570" t="n">
-        <v>8.061468398090369</v>
+        <v>20.93800675096161</v>
       </c>
       <c r="G570" t="n">
-        <v>0.3544842254519667</v>
+        <v>1.422623067701821</v>
       </c>
     </row>
     <row r="571">
@@ -17100,16 +17100,16 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="E571" t="n">
-        <v>23.56055005036219</v>
+        <v>40.62798041218325</v>
       </c>
       <c r="F571" t="n">
-        <v>8.255585411269728</v>
+        <v>21.32970694910349</v>
       </c>
       <c r="G571" t="n">
-        <v>0.708968450903936</v>
+        <v>1.301556094757451</v>
       </c>
     </row>
     <row r="572">
@@ -17129,16 +17129,16 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E572" t="n">
-        <v>23.84960774964091</v>
+        <v>40.79181597501128</v>
       </c>
       <c r="F572" t="n">
-        <v>8.531717627637249</v>
+        <v>21.69235742105348</v>
       </c>
       <c r="G572" t="n">
-        <v>0.8314014209171754</v>
+        <v>0.947071869305482</v>
       </c>
     </row>
     <row r="573">
@@ -17158,16 +17158,16 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="E573" t="n">
-        <v>24.13856462189027</v>
+        <v>41.07134357728489</v>
       </c>
       <c r="F573" t="n">
-        <v>8.807722019919801</v>
+        <v>21.9755919105139</v>
       </c>
       <c r="G573" t="n">
-        <v>0.6738572904751914</v>
+        <v>0.5925876438535127</v>
       </c>
     </row>
     <row r="574">
@@ -17187,16 +17187,16 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="E574" t="n">
-        <v>24.46182653286436</v>
+        <v>41.4230110418422</v>
       </c>
       <c r="F574" t="n">
-        <v>9.043019735991585</v>
+        <v>22.16439663243509</v>
       </c>
       <c r="G574" t="n">
-        <v>0.5717767959642197</v>
+        <v>0.3643137180457892</v>
       </c>
     </row>
     <row r="575">
@@ -17216,16 +17216,16 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="E575" t="n">
-        <v>24.78529902184499</v>
+        <v>41.80074510821335</v>
       </c>
       <c r="F575" t="n">
-        <v>9.277858459040077</v>
+        <v>22.29576177494028</v>
       </c>
       <c r="G575" t="n">
-        <v>0.7001925439665877</v>
+        <v>0.296598111155987</v>
       </c>
     </row>
     <row r="576">
@@ -17245,16 +17245,16 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="E576" t="n">
-        <v>25.10834547784353</v>
+        <v>42.18427856355471</v>
       </c>
       <c r="F576" t="n">
-        <v>9.513009159375873</v>
+        <v>22.40932616764464</v>
       </c>
       <c r="G576" t="n">
-        <v>0.5379625594666999</v>
+        <v>0.2766602818405453</v>
       </c>
     </row>
     <row r="577">
@@ -17274,16 +17274,16 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="E577" t="n">
-        <v>25.43609374829333</v>
+        <v>42.56923435939719</v>
       </c>
       <c r="F577" t="n">
-        <v>9.74156098242438</v>
+        <v>22.51799481355591</v>
       </c>
       <c r="G577" t="n">
-        <v>0.7001925439665877</v>
+        <v>0.27316178516962</v>
       </c>
     </row>
     <row r="578">
@@ -17303,16 +17303,16 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="E578" t="n">
-        <v>25.75914020429186</v>
+        <v>42.95429554513871</v>
       </c>
       <c r="F578" t="n">
-        <v>9.976711682760175</v>
+        <v>22.62628985044924</v>
       </c>
       <c r="G578" t="n">
-        <v>0.5379625594666999</v>
+        <v>0.2754416284625414</v>
       </c>
     </row>
     <row r="579">
@@ -17332,16 +17332,16 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="E579" t="n">
-        <v>26.10656968906937</v>
+        <v>43.32721859468165</v>
       </c>
       <c r="F579" t="n">
-        <v>10.17486903829701</v>
+        <v>22.76902225547716</v>
       </c>
       <c r="G579" t="n">
-        <v>0.493098927229231</v>
+        <v>0.4813778276633514</v>
       </c>
     </row>
     <row r="580">
@@ -17361,16 +17361,16 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="E580" t="n">
-        <v>26.47106435936243</v>
+        <v>43.64724397212744</v>
       </c>
       <c r="F580" t="n">
-        <v>10.33857151210113</v>
+        <v>23.00554120660669</v>
       </c>
       <c r="G580" t="n">
-        <v>0.3308689427293432</v>
+        <v>0.8358620531153207</v>
       </c>
     </row>
     <row r="581">
@@ -17390,16 +17390,16 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="E581" t="n">
-        <v>26.82991753017425</v>
+        <v>43.93551695226171</v>
       </c>
       <c r="F581" t="n">
-        <v>10.51245048094057</v>
+        <v>23.28222433497945</v>
       </c>
       <c r="G581" t="n">
-        <v>0.6059201908606804</v>
+        <v>0.6736320686154329</v>
       </c>
     </row>
     <row r="582">
@@ -17419,16 +17419,16 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="E582" t="n">
-        <v>27.17366493600925</v>
+        <v>44.26469444702497</v>
       </c>
       <c r="F582" t="n">
-        <v>10.71614777003235</v>
+        <v>23.50871283699006</v>
       </c>
       <c r="G582" t="n">
-        <v>0.4436902063607926</v>
+        <v>0.5114020841155451</v>
       </c>
     </row>
     <row r="583">
@@ -17448,16 +17448,16 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="E583" t="n">
-        <v>27.52147210795289</v>
+        <v>44.62595335775246</v>
       </c>
       <c r="F583" t="n">
-        <v>10.91283288829551</v>
+        <v>23.67946894933215</v>
       </c>
       <c r="G583" t="n">
-        <v>0.6059201908606804</v>
+        <v>0.3517292967486298</v>
       </c>
     </row>
     <row r="584">
@@ -17477,16 +17477,16 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="E584" t="n">
-        <v>27.85189936925637</v>
+        <v>45.00987735895037</v>
       </c>
       <c r="F584" t="n">
-        <v>11.13825301920423</v>
+        <v>23.79018130594073</v>
       </c>
       <c r="G584" t="n">
-        <v>0.5893825557787276</v>
+        <v>0.1894993122487421</v>
       </c>
     </row>
     <row r="585">
@@ -17506,16 +17506,16 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="E585" t="n">
-        <v>28.14456447920163</v>
+        <v>45.4066424494394</v>
       </c>
       <c r="F585" t="n">
-        <v>11.40789090577335</v>
+        <v>23.83742881985284</v>
       </c>
       <c r="G585" t="n">
-        <v>0.9438667812306969</v>
+        <v>0.02726932774885427</v>
       </c>
     </row>
     <row r="586">
@@ -17535,16 +17535,16 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="E586" t="n">
-        <v>28.39182915610822</v>
+        <v>45.79798575945641</v>
       </c>
       <c r="F586" t="n">
-        <v>11.722139094197</v>
+        <v>23.90959439445498</v>
       </c>
       <c r="G586" t="n">
-        <v>0.8530358220071586</v>
+        <v>0.3817535532008209</v>
       </c>
     </row>
     <row r="587">
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="E587" t="n">
-        <v>28.6041108891282</v>
+        <v>46.17841317156609</v>
       </c>
       <c r="F587" t="n">
-        <v>12.05873071958118</v>
+        <v>24.03178215455047</v>
       </c>
       <c r="G587" t="n">
-        <v>1.207520047459128</v>
+        <v>0.2195235687009331</v>
       </c>
     </row>
     <row r="588">
@@ -17593,16 +17593,16 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E588" t="n">
-        <v>28.7722220200431</v>
+        <v>45.98677194856076</v>
       </c>
       <c r="F588" t="n">
-        <v>12.42121314986456</v>
+        <v>23.97543001512651</v>
       </c>
       <c r="G588" t="n">
-        <v>1.04529006295924</v>
+        <v>0.3967656814269178</v>
       </c>
     </row>
     <row r="589">
@@ -17622,16 +17622,16 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="E589" t="n">
-        <v>28.99667368857395</v>
+        <v>46.2209820692481</v>
       </c>
       <c r="F589" t="n">
-        <v>12.75178282950161</v>
+        <v>24.06257490866868</v>
       </c>
       <c r="G589" t="n">
-        <v>0.8830600784593523</v>
+        <v>0.2953719411144879</v>
       </c>
     </row>
     <row r="590">
@@ -17651,16 +17651,16 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="E590" t="n">
-        <v>29.27157159274377</v>
+        <v>46.03416195664478</v>
       </c>
       <c r="F590" t="n">
-        <v>13.04175870243705</v>
+        <v>23.99186304615949</v>
       </c>
       <c r="G590" t="n">
-        <v>0.7208300939594645</v>
+        <v>0.4726140538404726</v>
       </c>
     </row>
     <row r="591">
@@ -17680,16 +17680,16 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E591" t="n">
-        <v>29.58638974208484</v>
+        <v>46.16905779433705</v>
       </c>
       <c r="F591" t="n">
-        <v>13.28806633478046</v>
+        <v>24.05741413457974</v>
       </c>
       <c r="G591" t="n">
-        <v>0.5907149749226344</v>
+        <v>0.4117778096530147</v>
       </c>
     </row>
     <row r="592">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="E592" t="n">
-        <v>29.94716558281833</v>
+        <v>45.99171468880299</v>
       </c>
       <c r="F592" t="n">
-        <v>13.4559896779933</v>
+        <v>23.96548293806749</v>
       </c>
       <c r="G592" t="n">
-        <v>0.2362307494706655</v>
+        <v>0.5890199223789994</v>
       </c>
     </row>
     <row r="593">
@@ -17738,16 +17738,16 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E593" t="n">
-        <v>30.34379773572768</v>
+        <v>46.11808430638762</v>
       </c>
       <c r="F593" t="n">
-        <v>13.48824478194946</v>
+        <v>24.04625763689885</v>
       </c>
       <c r="G593" t="n">
-        <v>-0.1182534759813003</v>
+        <v>0.5281836781915414</v>
       </c>
     </row>
     <row r="594">
@@ -17767,16 +17767,16 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="E594" t="n">
-        <v>30.74291960999415</v>
+        <v>45.95261855256571</v>
       </c>
       <c r="F594" t="n">
-        <v>13.46936108306258</v>
+        <v>23.93435139808803</v>
       </c>
       <c r="G594" t="n">
-        <v>0.04397650851858748</v>
+        <v>0.7054257909175261</v>
       </c>
     </row>
     <row r="595">
@@ -17796,16 +17796,16 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="E595" t="n">
-        <v>31.14255750873386</v>
+        <v>46.06875153320025</v>
       </c>
       <c r="F595" t="n">
-        <v>13.46290220164259</v>
+        <v>24.02925641918132</v>
       </c>
       <c r="G595" t="n">
-        <v>-0.09347934441165018</v>
+        <v>0.6445895467300682</v>
       </c>
     </row>
     <row r="596">
@@ -17825,16 +17825,16 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="E596" t="n">
-        <v>31.53974408101606</v>
+        <v>45.91740271539557</v>
       </c>
       <c r="F596" t="n">
-        <v>13.48740288023408</v>
+        <v>23.89888979261699</v>
       </c>
       <c r="G596" t="n">
-        <v>0.2610048810403161</v>
+        <v>0.8218316594560529</v>
       </c>
     </row>
     <row r="597">
@@ -17854,16 +17854,16 @@
         </is>
       </c>
       <c r="D597" t="n">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="E597" t="n">
-        <v>31.92053390105474</v>
+        <v>46.09483394634432</v>
       </c>
       <c r="F597" t="n">
-        <v>13.6092111998499</v>
+        <v>24.07486357301302</v>
       </c>
       <c r="G597" t="n">
-        <v>0.3720728504210928</v>
+        <v>0.720437919143623</v>
       </c>
     </row>
     <row r="598">
@@ -17883,16 +17883,16 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="E598" t="n">
-        <v>32.28413524967632</v>
+        <v>45.95379889106535</v>
       </c>
       <c r="F598" t="n">
-        <v>13.77527276089234</v>
+        <v>23.93340320699096</v>
       </c>
       <c r="G598" t="n">
-        <v>0.5008723687584489</v>
+        <v>0.8976800318696077</v>
       </c>
     </row>
     <row r="599">
@@ -17912,16 +17912,16 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E599" t="n">
-        <v>32.6473463886831</v>
+        <v>46.11738545717368</v>
       </c>
       <c r="F599" t="n">
-        <v>13.94180363821852</v>
+        <v>24.12231601357576</v>
       </c>
       <c r="G599" t="n">
-        <v>0.3386423842585611</v>
+        <v>0.7962862915571778</v>
       </c>
     </row>
     <row r="600">
@@ -17941,16 +17941,16 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="E600" t="n">
-        <v>33.0240309305217</v>
+        <v>45.98747514674324</v>
       </c>
       <c r="F600" t="n">
-        <v>14.07636734679522</v>
+        <v>23.97057533604827</v>
       </c>
       <c r="G600" t="n">
-        <v>0.3488377279092436</v>
+        <v>0.9735284042831625</v>
       </c>
     </row>
     <row r="601">
@@ -17970,16 +17970,16 @@
         </is>
       </c>
       <c r="D601" t="n">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E601" t="n">
-        <v>33.41079029082005</v>
+        <v>46.07431874665689</v>
       </c>
       <c r="F601" t="n">
-        <v>14.17509722627602</v>
+        <v>24.0928537943875</v>
       </c>
       <c r="G601" t="n">
-        <v>0.1227786739955423</v>
+        <v>0.9126921600957045</v>
       </c>
     </row>
     <row r="602">
@@ -17999,16 +17999,16 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="E602" t="n">
-        <v>33.80290538214014</v>
+        <v>45.96291124767848</v>
       </c>
       <c r="F602" t="n">
-        <v>14.25192932006641</v>
+        <v>23.92705183075615</v>
       </c>
       <c r="G602" t="n">
-        <v>0.2844075183416468</v>
+        <v>1.089934272821689</v>
       </c>
     </row>
     <row r="603">
@@ -18028,16 +18028,16 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="E603" t="n">
-        <v>34.19340742147968</v>
+        <v>46.08738793173632</v>
       </c>
       <c r="F603" t="n">
-        <v>14.33656395761676</v>
+        <v>24.14374093576336</v>
       </c>
       <c r="G603" t="n">
-        <v>0.122177533841759</v>
+        <v>0.9885405325092593</v>
       </c>
     </row>
     <row r="604">
@@ -18057,16 +18057,16 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E604" t="n">
-        <v>34.59245212232799</v>
+        <v>46.18591136750945</v>
       </c>
       <c r="F604" t="n">
-        <v>14.35701368442466</v>
+        <v>24.31750817829224</v>
       </c>
       <c r="G604" t="n">
-        <v>-0.04005245065812879</v>
+        <v>1.165782645235244</v>
       </c>
     </row>
     <row r="605">
@@ -18086,16 +18086,16 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="E605" t="n">
-        <v>34.39276714470851</v>
+        <v>46.36900077685376</v>
       </c>
       <c r="F605" t="n">
-        <v>14.35173810997798</v>
+        <v>24.67266044533778</v>
       </c>
       <c r="G605" t="n">
-        <v>0.1371896620678541</v>
+        <v>1.003552660735356</v>
       </c>
     </row>
     <row r="606">
@@ -18115,16 +18115,16 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="E606" t="n">
-        <v>34.54020670302395</v>
+        <v>46.6070500893964</v>
       </c>
       <c r="F606" t="n">
-        <v>14.37879619108192</v>
+        <v>24.9935769288652</v>
       </c>
       <c r="G606" t="n">
-        <v>0.2701212466123417</v>
+        <v>0.8413226762354684</v>
       </c>
     </row>
     <row r="607">
@@ -18144,16 +18144,16 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E607" t="n">
-        <v>34.35166081137834</v>
+        <v>46.89380791684196</v>
       </c>
       <c r="F607" t="n">
-        <v>14.31282370654329</v>
+        <v>25.27183007440058</v>
       </c>
       <c r="G607" t="n">
-        <v>0.4473633593383264</v>
+        <v>0.6790926917355806</v>
       </c>
     </row>
     <row r="608">
@@ -18173,16 +18173,16 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="E608" t="n">
-        <v>34.4838058605791</v>
+        <v>47.22174374163939</v>
       </c>
       <c r="F608" t="n">
-        <v>14.38359269043459</v>
+        <v>25.50011270496203</v>
       </c>
       <c r="G608" t="n">
-        <v>0.5802949438828149</v>
+        <v>0.5168627072356928</v>
       </c>
     </row>
     <row r="609">
@@ -18202,16 +18202,16 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="E609" t="n">
-        <v>34.32439366074339</v>
+        <v>47.58321513313567</v>
       </c>
       <c r="F609" t="n">
-        <v>14.26321963482754</v>
+        <v>25.67020625829796</v>
       </c>
       <c r="G609" t="n">
-        <v>0.7575370566087996</v>
+        <v>0.34076167267001</v>
       </c>
     </row>
     <row r="610">
@@ -18231,16 +18231,16 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="E610" t="n">
-        <v>34.51276465661397</v>
+        <v>47.96319444117421</v>
       </c>
       <c r="F610" t="n">
-        <v>14.42742980813474</v>
+        <v>25.79501894354497</v>
       </c>
       <c r="G610" t="n">
-        <v>0.6561433162963697</v>
+        <v>0.2872933513044247</v>
       </c>
     </row>
     <row r="611">
@@ -18260,16 +18260,16 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="E611" t="n">
-        <v>34.3629321328946</v>
+        <v>48.35345061337035</v>
       </c>
       <c r="F611" t="n">
-        <v>14.29532327230657</v>
+        <v>25.88078015076857</v>
       </c>
       <c r="G611" t="n">
-        <v>0.8333854290223544</v>
+        <v>0.1250633668045369</v>
       </c>
     </row>
     <row r="612">
@@ -18289,16 +18289,16 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="E612" t="n">
-        <v>34.4660047496825</v>
+        <v>48.75243463817751</v>
       </c>
       <c r="F612" t="n">
-        <v>14.40427219560678</v>
+        <v>25.90238136717647</v>
       </c>
       <c r="G612" t="n">
-        <v>0.7725491848348964</v>
+        <v>-0.0371666176953509</v>
       </c>
     </row>
     <row r="613">
@@ -18318,16 +18318,16 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="E613" t="n">
-        <v>34.33252949011213</v>
+        <v>49.15177464477313</v>
       </c>
       <c r="F613" t="n">
-        <v>14.25565767055872</v>
+        <v>25.91588780023008</v>
       </c>
       <c r="G613" t="n">
-        <v>0.9497912975608811</v>
+        <v>0.1250633668045369</v>
       </c>
     </row>
     <row r="614">
@@ -18347,16 +18347,16 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="E614" t="n">
-        <v>34.48605395947536</v>
+        <v>49.53420198644199</v>
       </c>
       <c r="F614" t="n">
-        <v>14.45283487616221</v>
+        <v>26.02591863589364</v>
       </c>
       <c r="G614" t="n">
-        <v>0.8483975572484512</v>
+        <v>0.4795475922565053</v>
       </c>
     </row>
     <row r="615">
@@ -18376,16 +18376,16 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="E615" t="n">
-        <v>34.60788409825718</v>
+        <v>49.90088150874929</v>
       </c>
       <c r="F615" t="n">
-        <v>14.61113629516102</v>
+        <v>26.18466684067757</v>
       </c>
       <c r="G615" t="n">
-        <v>1.025639669974436</v>
+        <v>0.3173176077566175</v>
       </c>
     </row>
     <row r="616">
@@ -18405,16 +18405,16 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="E616" t="n">
-        <v>34.83878783960393</v>
+        <v>50.25931407132261</v>
       </c>
       <c r="F616" t="n">
-        <v>14.93723187445289</v>
+        <v>26.35869568592657</v>
       </c>
       <c r="G616" t="n">
-        <v>0.8634096854745481</v>
+        <v>0.6251691858600843</v>
       </c>
     </row>
     <row r="617">
@@ -18434,16 +18434,16 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="E617" t="n">
-        <v>35.11933044438077</v>
+        <v>50.57877988618107</v>
       </c>
       <c r="F617" t="n">
-        <v>15.22175025963504</v>
+        <v>26.59934680008717</v>
       </c>
       <c r="G617" t="n">
-        <v>0.7011797009746603</v>
+        <v>0.6718791716213381</v>
       </c>
     </row>
     <row r="618">
@@ -18463,16 +18463,16 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E618" t="n">
-        <v>35.44890891665624</v>
+        <v>50.91538526049239</v>
       </c>
       <c r="F618" t="n">
-        <v>15.44684180726937</v>
+        <v>26.81369330692896</v>
       </c>
       <c r="G618" t="n">
-        <v>0.468090998658341</v>
+        <v>0.4322278575991163</v>
       </c>
     </row>
     <row r="619">
@@ -18492,16 +18492,16 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="E619" t="n">
-        <v>35.81109081901796</v>
+        <v>51.28350405535308</v>
       </c>
       <c r="F619" t="n">
-        <v>15.61643515076246</v>
+        <v>26.96997425855951</v>
       </c>
       <c r="G619" t="n">
-        <v>0.399152326817398</v>
+        <v>0.3619481714598862</v>
       </c>
     </row>
     <row r="620">
@@ -18521,16 +18521,16 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="E620" t="n">
-        <v>36.16731013120071</v>
+        <v>51.65868977683196</v>
       </c>
       <c r="F620" t="n">
-        <v>15.79743975354834</v>
+        <v>27.10865156419639</v>
       </c>
       <c r="G620" t="n">
-        <v>0.5613823113172858</v>
+        <v>0.3438914458446547</v>
       </c>
     </row>
     <row r="621">
@@ -18550,16 +18550,16 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="E621" t="n">
-        <v>36.4674094621527</v>
+        <v>52.02436270610593</v>
       </c>
       <c r="F621" t="n">
-        <v>16.05877832325228</v>
+        <v>27.2697048888992</v>
       </c>
       <c r="G621" t="n">
-        <v>0.9158665367692551</v>
+        <v>0.5061214303445425</v>
       </c>
     </row>
     <row r="622">
@@ -18579,16 +18579,16 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="E622" t="n">
-        <v>36.65813794019881</v>
+        <v>52.39803674288021</v>
       </c>
       <c r="F622" t="n">
-        <v>16.40803482514587</v>
+        <v>27.40654483443249</v>
       </c>
       <c r="G622" t="n">
-        <v>1.270350762221224</v>
+        <v>0.1516372048925745</v>
       </c>
     </row>
     <row r="623">
@@ -18608,16 +18608,16 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="E623" t="n">
-        <v>36.72309324076493</v>
+        <v>52.7963059412585</v>
       </c>
       <c r="F623" t="n">
-        <v>16.59713863693607</v>
+        <v>27.43873971329133</v>
       </c>
       <c r="G623" t="n">
-        <v>1.189235769971281</v>
+        <v>-0.01059277960731331</v>
       </c>
     </row>
     <row r="624">
@@ -18637,16 +18637,16 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="E624" t="n">
-        <v>36.82308275139256</v>
+        <v>53.19514607988687</v>
       </c>
       <c r="F624" t="n">
-        <v>16.98299064603522</v>
+        <v>27.46285212545878</v>
       </c>
       <c r="G624" t="n">
-        <v>1.481804105365502</v>
+        <v>0.1516372048925745</v>
       </c>
     </row>
     <row r="625">
@@ -18666,16 +18666,16 @@
         </is>
       </c>
       <c r="D625" t="n">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="E625" t="n">
-        <v>36.88672857783258</v>
+        <v>53.58485464858736</v>
       </c>
       <c r="F625" t="n">
-        <v>17.37745746767983</v>
+        <v>27.55106831491994</v>
       </c>
       <c r="G625" t="n">
-        <v>1.319574120865615</v>
+        <v>0.3138671893924623</v>
       </c>
     </row>
     <row r="626">
@@ -18695,16 +18695,16 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="E626" t="n">
-        <v>37.01862900807443</v>
+        <v>53.96000162813336</v>
       </c>
       <c r="F626" t="n">
-        <v>17.75442327171853</v>
+        <v>27.68947824563686</v>
       </c>
       <c r="G626" t="n">
-        <v>1.124456979585926</v>
+        <v>0.4043530543231859</v>
       </c>
     </row>
     <row r="627">
@@ -18724,16 +18724,16 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="E627" t="n">
-        <v>37.24379187880263</v>
+        <v>54.32465703318175</v>
       </c>
       <c r="F627" t="n">
-        <v>18.08253779151029</v>
+        <v>27.8537999906451</v>
       </c>
       <c r="G627" t="n">
-        <v>0.7699727541339572</v>
+        <v>0.4478227696177952</v>
       </c>
     </row>
     <row r="628">
@@ -18753,16 +18753,16 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="E628" t="n">
-        <v>37.56571824245006</v>
+        <v>54.68312616452343</v>
       </c>
       <c r="F628" t="n">
-        <v>18.317097255931</v>
+        <v>28.03125494449574</v>
       </c>
       <c r="G628" t="n">
-        <v>0.4492848413798898</v>
+        <v>0.4748979152792514</v>
       </c>
     </row>
     <row r="629">
@@ -18782,16 +18782,16 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="E629" t="n">
-        <v>37.89316812392833</v>
+        <v>55.05053984833795</v>
       </c>
       <c r="F629" t="n">
-        <v>18.54322560791853</v>
+        <v>28.18829649806509</v>
       </c>
       <c r="G629" t="n">
-        <v>0.8037690668318591</v>
+        <v>0.3126679307793636</v>
       </c>
     </row>
     <row r="630">
@@ -18811,16 +18811,16 @@
         </is>
       </c>
       <c r="D630" t="n">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="E630" t="n">
-        <v>38.1901707256706</v>
+        <v>55.42195943458935</v>
       </c>
       <c r="F630" t="n">
-        <v>18.81051630951504</v>
+        <v>28.33579188585566</v>
       </c>
       <c r="G630" t="n">
-        <v>0.6415390823319713</v>
+        <v>0.4620320678803025</v>
       </c>
     </row>
     <row r="631">
@@ -18840,16 +18840,16 @@
         </is>
       </c>
       <c r="D631" t="n">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="E631" t="n">
-        <v>38.53181151460427</v>
+        <v>55.7465002812127</v>
       </c>
       <c r="F631" t="n">
-        <v>19.01697377157059</v>
+        <v>28.56607583085779</v>
       </c>
       <c r="G631" t="n">
-        <v>0.4176410680289964</v>
+        <v>0.8165162933322714</v>
       </c>
     </row>
     <row r="632">
@@ -18869,16 +18869,16 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="E632" t="n">
-        <v>38.90194133433445</v>
+        <v>56.04007163019911</v>
       </c>
       <c r="F632" t="n">
-        <v>19.16845160640204</v>
+        <v>28.83713067338219</v>
       </c>
       <c r="G632" t="n">
-        <v>0.3509417103522887</v>
+        <v>0.6542863088323836</v>
       </c>
     </row>
     <row r="633">
@@ -18898,16 +18898,16 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="E633" t="n">
-        <v>39.26461191716659</v>
+        <v>56.37356884700937</v>
       </c>
       <c r="F633" t="n">
-        <v>19.33583041414507</v>
+        <v>29.05720900257759</v>
       </c>
       <c r="G633" t="n">
-        <v>0.537110293464786</v>
+        <v>0.4920563243324958</v>
       </c>
     </row>
     <row r="634">
@@ -18927,16 +18927,16 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="E634" t="n">
-        <v>39.62024629368372</v>
+        <v>56.71896107984477</v>
       </c>
       <c r="F634" t="n">
-        <v>19.51817444697422</v>
+        <v>29.25873991924622</v>
       </c>
       <c r="G634" t="n">
-        <v>0.3923526390449341</v>
+        <v>0.5746407664049054</v>
       </c>
     </row>
     <row r="635">
@@ -18956,16 +18956,16 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="E635" t="n">
-        <v>39.96607480911825</v>
+        <v>57.04959835066565</v>
       </c>
       <c r="F635" t="n">
-        <v>19.71636964911584</v>
+        <v>29.48377956576106</v>
       </c>
       <c r="G635" t="n">
-        <v>0.6850486009980097</v>
+        <v>0.6271263255089652</v>
       </c>
     </row>
     <row r="636">
@@ -18985,16 +18985,16 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="E636" t="n">
-        <v>40.23164584371745</v>
+        <v>57.3689629678268</v>
       </c>
       <c r="F636" t="n">
-        <v>20.01273004126473</v>
+        <v>29.72457347604836</v>
       </c>
       <c r="G636" t="n">
-        <v>1.039532826449979</v>
+        <v>0.6703626127823599</v>
       </c>
     </row>
     <row r="637">
@@ -19014,16 +19014,16 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="E637" t="n">
-        <v>40.45799694976147</v>
+        <v>57.48600011660104</v>
       </c>
       <c r="F637" t="n">
-        <v>20.34200202822124</v>
+        <v>29.81839178370237</v>
       </c>
       <c r="G637" t="n">
-        <v>0.8773028419500912</v>
+        <v>0.6864428894375414</v>
       </c>
     </row>
     <row r="638">
@@ -19043,16 +19043,16 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="E638" t="n">
-        <v>40.55618696551842</v>
+        <v>57.32342144856688</v>
       </c>
       <c r="F638" t="n">
-        <v>20.45537112906193</v>
+        <v>29.70233102947049</v>
       </c>
       <c r="G638" t="n">
-        <v>0.8164665977626333</v>
+        <v>0.5092007767115572</v>
       </c>
     </row>
     <row r="639">
@@ -19072,16 +19072,16 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="E639" t="n">
-        <v>40.42806927867336</v>
+        <v>57.68523307000245</v>
       </c>
       <c r="F639" t="n">
-        <v>20.30203998240781</v>
+        <v>29.87188106691016</v>
       </c>
       <c r="G639" t="n">
-        <v>0.9718734963766362</v>
+        <v>0.3469707922116694</v>
       </c>
     </row>
     <row r="640">
@@ -19101,16 +19101,16 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="E640" t="n">
-        <v>40.51511511916201</v>
+        <v>58.05040832736751</v>
       </c>
       <c r="F640" t="n">
-        <v>20.42417455520931</v>
+        <v>30.03405965985633</v>
       </c>
       <c r="G640" t="n">
-        <v>0.9110372521891783</v>
+        <v>0.5092007767115572</v>
       </c>
     </row>
     <row r="641">
@@ -19130,16 +19130,16 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E641" t="n">
-        <v>40.40343338588526</v>
+        <v>58.36373003861542</v>
       </c>
       <c r="F641" t="n">
-        <v>20.25855718768726</v>
+        <v>30.27938997130075</v>
       </c>
       <c r="G641" t="n">
-        <v>1.088279364915163</v>
+        <v>0.8636850021635265</v>
       </c>
     </row>
     <row r="642">
@@ -19159,16 +19159,16 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="E642" t="n">
-        <v>40.47570504738187</v>
+        <v>58.60833438694854</v>
       </c>
       <c r="F642" t="n">
-        <v>20.38997499152029</v>
+        <v>30.59562694248389</v>
       </c>
       <c r="G642" t="n">
-        <v>1.027443120727705</v>
+        <v>0.9751109731959016</v>
       </c>
     </row>
     <row r="643">
@@ -19188,16 +19188,16 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="E643" t="n">
-        <v>40.38401444595266</v>
+        <v>58.81739515618693</v>
       </c>
       <c r="F643" t="n">
-        <v>20.21250737311573</v>
+        <v>30.9364376872783</v>
       </c>
       <c r="G643" t="n">
-        <v>1.20468523345369</v>
+        <v>1.079008642333333</v>
       </c>
     </row>
     <row r="644">
@@ -19217,16 +19217,16 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="E644" t="n">
-        <v>40.48286173916374</v>
+        <v>58.98687252675371</v>
       </c>
       <c r="F644" t="n">
-        <v>20.44202387737567</v>
+        <v>31.29848428528073</v>
       </c>
       <c r="G644" t="n">
-        <v>1.10329149314126</v>
+        <v>1.202383627388683</v>
       </c>
     </row>
     <row r="645">
@@ -19246,16 +19246,16 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="E645" t="n">
-        <v>40.40316267668057</v>
+        <v>59.10397433768168</v>
       </c>
       <c r="F645" t="n">
-        <v>20.25878818799085</v>
+        <v>31.6805078846552</v>
       </c>
       <c r="G645" t="n">
-        <v>1.255914194648614</v>
+        <v>1.36461361188857</v>
       </c>
     </row>
     <row r="646">
@@ -19275,16 +19275,16 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="E646" t="n">
-        <v>40.49012754066816</v>
+        <v>59.15462499504998</v>
       </c>
       <c r="F646" t="n">
-        <v>20.49306521532063</v>
+        <v>32.02653265331711</v>
       </c>
       <c r="G646" t="n">
-        <v>1.154520454336184</v>
+        <v>1.506564848325972</v>
       </c>
     </row>
     <row r="647">
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="E647" t="n">
-        <v>40.42166774619197</v>
+        <v>59.24120287591528</v>
       </c>
       <c r="F647" t="n">
-        <v>20.30540813841461</v>
+        <v>32.41494187951754</v>
       </c>
       <c r="G647" t="n">
-        <v>1.331762567062169</v>
+        <v>1.152080622874003</v>
       </c>
     </row>
     <row r="648">
@@ -19333,16 +19333,16 @@
         </is>
       </c>
       <c r="D648" t="n">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="E648" t="n">
-        <v>40.49063007854303</v>
+        <v>59.08366246413068</v>
       </c>
       <c r="F648" t="n">
-        <v>20.54560141438119</v>
+        <v>32.04729013186999</v>
       </c>
       <c r="G648" t="n">
-        <v>1.230368826749739</v>
+        <v>1.18380748015781</v>
       </c>
     </row>
     <row r="649">
@@ -19362,2364 +19362,15 @@
         </is>
       </c>
       <c r="D649" t="n">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="E649" t="n">
-        <v>40.54467320334626</v>
+        <v>58.88</v>
       </c>
       <c r="F649" t="n">
-        <v>20.73790654336671</v>
+        <v>32</v>
       </c>
       <c r="G649" t="n">
-        <v>1.407610939475724</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D650" t="n">
-        <v>126</v>
-      </c>
-      <c r="E650" t="n">
-        <v>40.52538312233837</v>
-      </c>
-      <c r="F650" t="n">
-        <v>20.53908548123459</v>
-      </c>
-      <c r="G650" t="n">
-        <v>1.584853052201709</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C651" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D651" t="n">
-        <v>127</v>
-      </c>
-      <c r="E651" t="n">
-        <v>40.5481138319845</v>
-      </c>
-      <c r="F651" t="n">
-        <v>20.93800675096161</v>
-      </c>
-      <c r="G651" t="n">
-        <v>1.422623067701821</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D652" t="n">
-        <v>128</v>
-      </c>
-      <c r="E652" t="n">
-        <v>40.62798041218325</v>
-      </c>
-      <c r="F652" t="n">
-        <v>21.32970694910349</v>
-      </c>
-      <c r="G652" t="n">
-        <v>1.301556094757451</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D653" t="n">
-        <v>129</v>
-      </c>
-      <c r="E653" t="n">
-        <v>40.79181597501128</v>
-      </c>
-      <c r="F653" t="n">
-        <v>21.69235742105348</v>
-      </c>
-      <c r="G653" t="n">
-        <v>0.947071869305482</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C654" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D654" t="n">
-        <v>130</v>
-      </c>
-      <c r="E654" t="n">
-        <v>41.07134357728489</v>
-      </c>
-      <c r="F654" t="n">
-        <v>21.9755919105139</v>
-      </c>
-      <c r="G654" t="n">
-        <v>0.5925876438535127</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D655" t="n">
-        <v>131</v>
-      </c>
-      <c r="E655" t="n">
-        <v>41.4230110418422</v>
-      </c>
-      <c r="F655" t="n">
-        <v>22.16439663243509</v>
-      </c>
-      <c r="G655" t="n">
-        <v>0.3643137180457892</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D656" t="n">
-        <v>132</v>
-      </c>
-      <c r="E656" t="n">
-        <v>41.80074510821335</v>
-      </c>
-      <c r="F656" t="n">
-        <v>22.29576177494028</v>
-      </c>
-      <c r="G656" t="n">
-        <v>0.296598111155987</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D657" t="n">
-        <v>133</v>
-      </c>
-      <c r="E657" t="n">
-        <v>42.18427856355471</v>
-      </c>
-      <c r="F657" t="n">
-        <v>22.40932616764464</v>
-      </c>
-      <c r="G657" t="n">
-        <v>0.2766602818405453</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D658" t="n">
-        <v>134</v>
-      </c>
-      <c r="E658" t="n">
-        <v>42.56923435939719</v>
-      </c>
-      <c r="F658" t="n">
-        <v>22.51799481355591</v>
-      </c>
-      <c r="G658" t="n">
-        <v>0.27316178516962</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D659" t="n">
-        <v>135</v>
-      </c>
-      <c r="E659" t="n">
-        <v>42.95429554513871</v>
-      </c>
-      <c r="F659" t="n">
-        <v>22.62628985044924</v>
-      </c>
-      <c r="G659" t="n">
-        <v>0.2754416284625414</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D660" t="n">
-        <v>136</v>
-      </c>
-      <c r="E660" t="n">
-        <v>43.32721859468165</v>
-      </c>
-      <c r="F660" t="n">
-        <v>22.76902225547716</v>
-      </c>
-      <c r="G660" t="n">
-        <v>0.4813778276633514</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D661" t="n">
-        <v>137</v>
-      </c>
-      <c r="E661" t="n">
-        <v>43.64724397212744</v>
-      </c>
-      <c r="F661" t="n">
-        <v>23.00554120660669</v>
-      </c>
-      <c r="G661" t="n">
-        <v>0.8358620531153207</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D662" t="n">
-        <v>138</v>
-      </c>
-      <c r="E662" t="n">
-        <v>43.93551695226171</v>
-      </c>
-      <c r="F662" t="n">
-        <v>23.28222433497945</v>
-      </c>
-      <c r="G662" t="n">
-        <v>0.6736320686154329</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D663" t="n">
-        <v>139</v>
-      </c>
-      <c r="E663" t="n">
-        <v>44.26469444702497</v>
-      </c>
-      <c r="F663" t="n">
-        <v>23.50871283699006</v>
-      </c>
-      <c r="G663" t="n">
-        <v>0.5114020841155451</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D664" t="n">
-        <v>140</v>
-      </c>
-      <c r="E664" t="n">
-        <v>44.62595335775246</v>
-      </c>
-      <c r="F664" t="n">
-        <v>23.67946894933215</v>
-      </c>
-      <c r="G664" t="n">
-        <v>0.3517292967486298</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D665" t="n">
-        <v>141</v>
-      </c>
-      <c r="E665" t="n">
-        <v>45.00987735895037</v>
-      </c>
-      <c r="F665" t="n">
-        <v>23.79018130594073</v>
-      </c>
-      <c r="G665" t="n">
-        <v>0.1894993122487421</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D666" t="n">
-        <v>142</v>
-      </c>
-      <c r="E666" t="n">
-        <v>45.4066424494394</v>
-      </c>
-      <c r="F666" t="n">
-        <v>23.83742881985284</v>
-      </c>
-      <c r="G666" t="n">
-        <v>0.02726932774885427</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D667" t="n">
-        <v>143</v>
-      </c>
-      <c r="E667" t="n">
-        <v>45.79798575945641</v>
-      </c>
-      <c r="F667" t="n">
-        <v>23.90959439445498</v>
-      </c>
-      <c r="G667" t="n">
-        <v>0.3817535532008209</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D668" t="n">
-        <v>144</v>
-      </c>
-      <c r="E668" t="n">
-        <v>46.17841317156609</v>
-      </c>
-      <c r="F668" t="n">
-        <v>24.03178215455047</v>
-      </c>
-      <c r="G668" t="n">
-        <v>0.2195235687009331</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D669" t="n">
-        <v>145</v>
-      </c>
-      <c r="E669" t="n">
-        <v>45.98677194856076</v>
-      </c>
-      <c r="F669" t="n">
-        <v>23.97543001512651</v>
-      </c>
-      <c r="G669" t="n">
-        <v>0.3967656814269178</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D670" t="n">
-        <v>146</v>
-      </c>
-      <c r="E670" t="n">
-        <v>46.2209820692481</v>
-      </c>
-      <c r="F670" t="n">
-        <v>24.06257490866868</v>
-      </c>
-      <c r="G670" t="n">
-        <v>0.2953719411144879</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D671" t="n">
-        <v>147</v>
-      </c>
-      <c r="E671" t="n">
-        <v>46.03416195664478</v>
-      </c>
-      <c r="F671" t="n">
-        <v>23.99186304615949</v>
-      </c>
-      <c r="G671" t="n">
-        <v>0.4726140538404726</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D672" t="n">
-        <v>148</v>
-      </c>
-      <c r="E672" t="n">
-        <v>46.16905779433705</v>
-      </c>
-      <c r="F672" t="n">
-        <v>24.05741413457974</v>
-      </c>
-      <c r="G672" t="n">
-        <v>0.4117778096530147</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D673" t="n">
-        <v>149</v>
-      </c>
-      <c r="E673" t="n">
-        <v>45.99171468880299</v>
-      </c>
-      <c r="F673" t="n">
-        <v>23.96548293806749</v>
-      </c>
-      <c r="G673" t="n">
-        <v>0.5890199223789994</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D674" t="n">
-        <v>150</v>
-      </c>
-      <c r="E674" t="n">
-        <v>46.11808430638762</v>
-      </c>
-      <c r="F674" t="n">
-        <v>24.04625763689885</v>
-      </c>
-      <c r="G674" t="n">
-        <v>0.5281836781915414</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D675" t="n">
-        <v>151</v>
-      </c>
-      <c r="E675" t="n">
-        <v>45.95261855256571</v>
-      </c>
-      <c r="F675" t="n">
-        <v>23.93435139808803</v>
-      </c>
-      <c r="G675" t="n">
-        <v>0.7054257909175261</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D676" t="n">
-        <v>152</v>
-      </c>
-      <c r="E676" t="n">
-        <v>46.06875153320025</v>
-      </c>
-      <c r="F676" t="n">
-        <v>24.02925641918132</v>
-      </c>
-      <c r="G676" t="n">
-        <v>0.6445895467300682</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D677" t="n">
-        <v>153</v>
-      </c>
-      <c r="E677" t="n">
-        <v>45.91740271539557</v>
-      </c>
-      <c r="F677" t="n">
-        <v>23.89888979261699</v>
-      </c>
-      <c r="G677" t="n">
-        <v>0.8218316594560529</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D678" t="n">
-        <v>154</v>
-      </c>
-      <c r="E678" t="n">
-        <v>46.09483394634432</v>
-      </c>
-      <c r="F678" t="n">
-        <v>24.07486357301302</v>
-      </c>
-      <c r="G678" t="n">
-        <v>0.720437919143623</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D679" t="n">
-        <v>155</v>
-      </c>
-      <c r="E679" t="n">
-        <v>45.95379889106535</v>
-      </c>
-      <c r="F679" t="n">
-        <v>23.93340320699096</v>
-      </c>
-      <c r="G679" t="n">
-        <v>0.8976800318696077</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D680" t="n">
-        <v>156</v>
-      </c>
-      <c r="E680" t="n">
-        <v>46.11738545717368</v>
-      </c>
-      <c r="F680" t="n">
-        <v>24.12231601357576</v>
-      </c>
-      <c r="G680" t="n">
-        <v>0.7962862915571778</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D681" t="n">
-        <v>157</v>
-      </c>
-      <c r="E681" t="n">
-        <v>45.98747514674324</v>
-      </c>
-      <c r="F681" t="n">
-        <v>23.97057533604827</v>
-      </c>
-      <c r="G681" t="n">
-        <v>0.9735284042831625</v>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D682" t="n">
-        <v>158</v>
-      </c>
-      <c r="E682" t="n">
-        <v>46.07431874665689</v>
-      </c>
-      <c r="F682" t="n">
-        <v>24.0928537943875</v>
-      </c>
-      <c r="G682" t="n">
-        <v>0.9126921600957045</v>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D683" t="n">
-        <v>159</v>
-      </c>
-      <c r="E683" t="n">
-        <v>45.96291124767848</v>
-      </c>
-      <c r="F683" t="n">
-        <v>23.92705183075615</v>
-      </c>
-      <c r="G683" t="n">
-        <v>1.089934272821689</v>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D684" t="n">
-        <v>160</v>
-      </c>
-      <c r="E684" t="n">
-        <v>46.08738793173632</v>
-      </c>
-      <c r="F684" t="n">
-        <v>24.14374093576336</v>
-      </c>
-      <c r="G684" t="n">
-        <v>0.9885405325092593</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D685" t="n">
-        <v>161</v>
-      </c>
-      <c r="E685" t="n">
-        <v>46.18591136750945</v>
-      </c>
-      <c r="F685" t="n">
-        <v>24.31750817829224</v>
-      </c>
-      <c r="G685" t="n">
-        <v>1.165782645235244</v>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D686" t="n">
-        <v>162</v>
-      </c>
-      <c r="E686" t="n">
-        <v>46.36900077685376</v>
-      </c>
-      <c r="F686" t="n">
-        <v>24.67266044533778</v>
-      </c>
-      <c r="G686" t="n">
-        <v>1.003552660735356</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D687" t="n">
-        <v>163</v>
-      </c>
-      <c r="E687" t="n">
-        <v>46.6070500893964</v>
-      </c>
-      <c r="F687" t="n">
-        <v>24.9935769288652</v>
-      </c>
-      <c r="G687" t="n">
-        <v>0.8413226762354684</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D688" t="n">
-        <v>164</v>
-      </c>
-      <c r="E688" t="n">
-        <v>46.89380791684196</v>
-      </c>
-      <c r="F688" t="n">
-        <v>25.27183007440058</v>
-      </c>
-      <c r="G688" t="n">
-        <v>0.6790926917355806</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D689" t="n">
-        <v>165</v>
-      </c>
-      <c r="E689" t="n">
-        <v>47.22174374163939</v>
-      </c>
-      <c r="F689" t="n">
-        <v>25.50011270496203</v>
-      </c>
-      <c r="G689" t="n">
-        <v>0.5168627072356928</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D690" t="n">
-        <v>166</v>
-      </c>
-      <c r="E690" t="n">
-        <v>47.58321513313567</v>
-      </c>
-      <c r="F690" t="n">
-        <v>25.67020625829796</v>
-      </c>
-      <c r="G690" t="n">
-        <v>0.34076167267001</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D691" t="n">
-        <v>167</v>
-      </c>
-      <c r="E691" t="n">
-        <v>47.96319444117421</v>
-      </c>
-      <c r="F691" t="n">
-        <v>25.79501894354497</v>
-      </c>
-      <c r="G691" t="n">
-        <v>0.2872933513044247</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D692" t="n">
-        <v>168</v>
-      </c>
-      <c r="E692" t="n">
-        <v>48.35345061337035</v>
-      </c>
-      <c r="F692" t="n">
-        <v>25.88078015076857</v>
-      </c>
-      <c r="G692" t="n">
-        <v>0.1250633668045369</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D693" t="n">
-        <v>169</v>
-      </c>
-      <c r="E693" t="n">
-        <v>48.75243463817751</v>
-      </c>
-      <c r="F693" t="n">
-        <v>25.90238136717647</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-0.0371666176953509</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D694" t="n">
-        <v>170</v>
-      </c>
-      <c r="E694" t="n">
-        <v>49.15177464477313</v>
-      </c>
-      <c r="F694" t="n">
-        <v>25.91588780023008</v>
-      </c>
-      <c r="G694" t="n">
-        <v>0.1250633668045369</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D695" t="n">
-        <v>171</v>
-      </c>
-      <c r="E695" t="n">
-        <v>49.53420198644199</v>
-      </c>
-      <c r="F695" t="n">
-        <v>26.02591863589364</v>
-      </c>
-      <c r="G695" t="n">
-        <v>0.4795475922565053</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D696" t="n">
-        <v>172</v>
-      </c>
-      <c r="E696" t="n">
-        <v>49.90088150874929</v>
-      </c>
-      <c r="F696" t="n">
-        <v>26.18466684067757</v>
-      </c>
-      <c r="G696" t="n">
-        <v>0.3173176077566175</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D697" t="n">
-        <v>173</v>
-      </c>
-      <c r="E697" t="n">
-        <v>50.25931407132261</v>
-      </c>
-      <c r="F697" t="n">
-        <v>26.35869568592657</v>
-      </c>
-      <c r="G697" t="n">
-        <v>0.6251691858600843</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D698" t="n">
-        <v>174</v>
-      </c>
-      <c r="E698" t="n">
-        <v>50.57877988618107</v>
-      </c>
-      <c r="F698" t="n">
-        <v>26.59934680008717</v>
-      </c>
-      <c r="G698" t="n">
-        <v>0.6718791716213381</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D699" t="n">
-        <v>175</v>
-      </c>
-      <c r="E699" t="n">
-        <v>50.91538526049239</v>
-      </c>
-      <c r="F699" t="n">
-        <v>26.81369330692896</v>
-      </c>
-      <c r="G699" t="n">
-        <v>0.4322278575991163</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D700" t="n">
-        <v>176</v>
-      </c>
-      <c r="E700" t="n">
-        <v>51.28350405535308</v>
-      </c>
-      <c r="F700" t="n">
-        <v>26.96997425855951</v>
-      </c>
-      <c r="G700" t="n">
-        <v>0.3619481714598862</v>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D701" t="n">
-        <v>177</v>
-      </c>
-      <c r="E701" t="n">
-        <v>51.65868977683196</v>
-      </c>
-      <c r="F701" t="n">
-        <v>27.10865156419639</v>
-      </c>
-      <c r="G701" t="n">
-        <v>0.3438914458446547</v>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D702" t="n">
-        <v>178</v>
-      </c>
-      <c r="E702" t="n">
-        <v>52.02436270610593</v>
-      </c>
-      <c r="F702" t="n">
-        <v>27.2697048888992</v>
-      </c>
-      <c r="G702" t="n">
-        <v>0.5061214303445425</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D703" t="n">
-        <v>179</v>
-      </c>
-      <c r="E703" t="n">
-        <v>52.39803674288021</v>
-      </c>
-      <c r="F703" t="n">
-        <v>27.40654483443249</v>
-      </c>
-      <c r="G703" t="n">
-        <v>0.1516372048925745</v>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D704" t="n">
-        <v>180</v>
-      </c>
-      <c r="E704" t="n">
-        <v>52.7963059412585</v>
-      </c>
-      <c r="F704" t="n">
-        <v>27.43873971329133</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-0.01059277960731331</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D705" t="n">
-        <v>181</v>
-      </c>
-      <c r="E705" t="n">
-        <v>53.19514607988687</v>
-      </c>
-      <c r="F705" t="n">
-        <v>27.46285212545878</v>
-      </c>
-      <c r="G705" t="n">
-        <v>0.1516372048925745</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D706" t="n">
-        <v>182</v>
-      </c>
-      <c r="E706" t="n">
-        <v>53.58485464858736</v>
-      </c>
-      <c r="F706" t="n">
-        <v>27.55106831491994</v>
-      </c>
-      <c r="G706" t="n">
-        <v>0.3138671893924623</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D707" t="n">
-        <v>183</v>
-      </c>
-      <c r="E707" t="n">
-        <v>53.96000162813336</v>
-      </c>
-      <c r="F707" t="n">
-        <v>27.68947824563686</v>
-      </c>
-      <c r="G707" t="n">
-        <v>0.4043530543231859</v>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D708" t="n">
-        <v>184</v>
-      </c>
-      <c r="E708" t="n">
-        <v>54.32465703318175</v>
-      </c>
-      <c r="F708" t="n">
-        <v>27.8537999906451</v>
-      </c>
-      <c r="G708" t="n">
-        <v>0.4478227696177952</v>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D709" t="n">
-        <v>185</v>
-      </c>
-      <c r="E709" t="n">
-        <v>54.68312616452343</v>
-      </c>
-      <c r="F709" t="n">
-        <v>28.03125494449574</v>
-      </c>
-      <c r="G709" t="n">
-        <v>0.4748979152792514</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D710" t="n">
-        <v>186</v>
-      </c>
-      <c r="E710" t="n">
-        <v>55.05053984833795</v>
-      </c>
-      <c r="F710" t="n">
-        <v>28.18829649806509</v>
-      </c>
-      <c r="G710" t="n">
-        <v>0.3126679307793636</v>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D711" t="n">
-        <v>187</v>
-      </c>
-      <c r="E711" t="n">
-        <v>55.42195943458935</v>
-      </c>
-      <c r="F711" t="n">
-        <v>28.33579188585566</v>
-      </c>
-      <c r="G711" t="n">
-        <v>0.4620320678803025</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D712" t="n">
-        <v>188</v>
-      </c>
-      <c r="E712" t="n">
-        <v>55.7465002812127</v>
-      </c>
-      <c r="F712" t="n">
-        <v>28.56607583085779</v>
-      </c>
-      <c r="G712" t="n">
-        <v>0.8165162933322714</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D713" t="n">
-        <v>189</v>
-      </c>
-      <c r="E713" t="n">
-        <v>56.04007163019911</v>
-      </c>
-      <c r="F713" t="n">
-        <v>28.83713067338219</v>
-      </c>
-      <c r="G713" t="n">
-        <v>0.6542863088323836</v>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D714" t="n">
-        <v>190</v>
-      </c>
-      <c r="E714" t="n">
-        <v>56.37356884700937</v>
-      </c>
-      <c r="F714" t="n">
-        <v>29.05720900257759</v>
-      </c>
-      <c r="G714" t="n">
-        <v>0.4920563243324958</v>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D715" t="n">
-        <v>191</v>
-      </c>
-      <c r="E715" t="n">
-        <v>56.71896107984477</v>
-      </c>
-      <c r="F715" t="n">
-        <v>29.25873991924622</v>
-      </c>
-      <c r="G715" t="n">
-        <v>0.5746407664049054</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D716" t="n">
-        <v>192</v>
-      </c>
-      <c r="E716" t="n">
-        <v>57.04959835066565</v>
-      </c>
-      <c r="F716" t="n">
-        <v>29.48377956576106</v>
-      </c>
-      <c r="G716" t="n">
-        <v>0.6271263255089652</v>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D717" t="n">
-        <v>193</v>
-      </c>
-      <c r="E717" t="n">
-        <v>57.3689629678268</v>
-      </c>
-      <c r="F717" t="n">
-        <v>29.72457347604836</v>
-      </c>
-      <c r="G717" t="n">
-        <v>0.6703626127823599</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D718" t="n">
-        <v>194</v>
-      </c>
-      <c r="E718" t="n">
-        <v>57.48600011660104</v>
-      </c>
-      <c r="F718" t="n">
-        <v>29.81839178370237</v>
-      </c>
-      <c r="G718" t="n">
-        <v>0.6864428894375414</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D719" t="n">
-        <v>195</v>
-      </c>
-      <c r="E719" t="n">
-        <v>57.32342144856688</v>
-      </c>
-      <c r="F719" t="n">
-        <v>29.70233102947049</v>
-      </c>
-      <c r="G719" t="n">
-        <v>0.5092007767115572</v>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D720" t="n">
-        <v>196</v>
-      </c>
-      <c r="E720" t="n">
-        <v>57.68523307000245</v>
-      </c>
-      <c r="F720" t="n">
-        <v>29.87188106691016</v>
-      </c>
-      <c r="G720" t="n">
-        <v>0.3469707922116694</v>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D721" t="n">
-        <v>197</v>
-      </c>
-      <c r="E721" t="n">
-        <v>58.05040832736751</v>
-      </c>
-      <c r="F721" t="n">
-        <v>30.03405965985633</v>
-      </c>
-      <c r="G721" t="n">
-        <v>0.5092007767115572</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D722" t="n">
-        <v>198</v>
-      </c>
-      <c r="E722" t="n">
-        <v>58.36373003861542</v>
-      </c>
-      <c r="F722" t="n">
-        <v>30.27938997130075</v>
-      </c>
-      <c r="G722" t="n">
-        <v>0.8636850021635265</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D723" t="n">
-        <v>199</v>
-      </c>
-      <c r="E723" t="n">
-        <v>58.60833438694854</v>
-      </c>
-      <c r="F723" t="n">
-        <v>30.59562694248389</v>
-      </c>
-      <c r="G723" t="n">
-        <v>0.9751109731959016</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D724" t="n">
-        <v>200</v>
-      </c>
-      <c r="E724" t="n">
-        <v>58.81739515618693</v>
-      </c>
-      <c r="F724" t="n">
-        <v>30.9364376872783</v>
-      </c>
-      <c r="G724" t="n">
-        <v>1.079008642333333</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D725" t="n">
-        <v>201</v>
-      </c>
-      <c r="E725" t="n">
-        <v>58.98687252675371</v>
-      </c>
-      <c r="F725" t="n">
-        <v>31.29848428528073</v>
-      </c>
-      <c r="G725" t="n">
-        <v>1.202383627388683</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D726" t="n">
-        <v>202</v>
-      </c>
-      <c r="E726" t="n">
-        <v>59.10397433768168</v>
-      </c>
-      <c r="F726" t="n">
-        <v>31.6805078846552</v>
-      </c>
-      <c r="G726" t="n">
-        <v>1.36461361188857</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D727" t="n">
-        <v>203</v>
-      </c>
-      <c r="E727" t="n">
-        <v>59.15462499504998</v>
-      </c>
-      <c r="F727" t="n">
-        <v>32.02653265331711</v>
-      </c>
-      <c r="G727" t="n">
-        <v>1.506564848325972</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D728" t="n">
-        <v>204</v>
-      </c>
-      <c r="E728" t="n">
-        <v>59.24120287591528</v>
-      </c>
-      <c r="F728" t="n">
-        <v>32.41494187951754</v>
-      </c>
-      <c r="G728" t="n">
-        <v>1.152080622874003</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D729" t="n">
-        <v>205</v>
-      </c>
-      <c r="E729" t="n">
-        <v>59.08366246413068</v>
-      </c>
-      <c r="F729" t="n">
-        <v>32.04729013186999</v>
-      </c>
-      <c r="G729" t="n">
-        <v>1.18380748015781</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D730" t="n">
-        <v>206</v>
-      </c>
-      <c r="E730" t="n">
-        <v>58.88</v>
-      </c>
-      <c r="F730" t="n">
-        <v>32</v>
-      </c>
-      <c r="G730" t="n">
         <v>0</v>
       </c>
     </row>
